--- a/raw_data/20200818_saline/20200818_Sensor3_Test_72.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_72.xlsx
@@ -1,1067 +1,1483 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B23675-087D-440E-8447-3D24957749F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>64456.949425</v>
+        <v>64456.949424999999</v>
       </c>
       <c r="B2" s="1">
-        <v>17.904708</v>
+        <v>17.904707999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1143.770000</v>
+        <v>1143.77</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.366000</v>
+        <v>-261.36599999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>64467.630805</v>
+        <v>64467.630805000001</v>
       </c>
       <c r="G2" s="1">
-        <v>17.907675</v>
+        <v>17.907675000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1165.740000</v>
+        <v>1165.74</v>
       </c>
       <c r="I2" s="1">
-        <v>-220.341000</v>
+        <v>-220.34100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>64478.084969</v>
+        <v>64478.084969000003</v>
       </c>
       <c r="L2" s="1">
-        <v>17.910579</v>
+        <v>17.910578999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>1194.830000</v>
+        <v>1194.83</v>
       </c>
       <c r="N2" s="1">
-        <v>-152.953000</v>
+        <v>-152.953</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>64488.327871</v>
+        <v>64488.327871000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.913424</v>
+        <v>17.913423999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1203.130000</v>
+        <v>1203.1300000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-130.607000</v>
+        <v>-130.607</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>64498.879267</v>
+        <v>64498.879266999997</v>
       </c>
       <c r="V2" s="1">
-        <v>17.916355</v>
+        <v>17.916354999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1210.610000</v>
+        <v>1210.6099999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-109.338000</v>
+        <v>-109.33799999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>64508.989182</v>
+        <v>64508.989181999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.919164</v>
+        <v>17.919163999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1218.420000</v>
+        <v>1218.42</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.932200</v>
+        <v>-91.932199999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>64519.235537</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.922010</v>
+        <v>17.92201</v>
       </c>
       <c r="AG2" s="1">
-        <v>1223.070000</v>
+        <v>1223.07</v>
       </c>
       <c r="AH2" s="1">
-        <v>-87.172500</v>
+        <v>-87.172499999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>64529.337058</v>
+        <v>64529.337057999997</v>
       </c>
       <c r="AK2" s="1">
         <v>17.924816</v>
       </c>
       <c r="AL2" s="1">
-        <v>1230.270000</v>
+        <v>1230.27</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.377200</v>
+        <v>-90.377200000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>64539.909811</v>
+        <v>64539.909810999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.927753</v>
+        <v>17.927752999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1238.330000</v>
+        <v>1238.33</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.300000</v>
+        <v>-102.3</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>64551.315813</v>
+        <v>64551.315813000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.930921</v>
+        <v>17.930921000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1248.510000</v>
+        <v>1248.51</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.642000</v>
+        <v>-121.642</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>64562.446502</v>
+        <v>64562.446501999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>17.934013</v>
       </c>
       <c r="BA2" s="1">
-        <v>1257.140000</v>
+        <v>1257.1400000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.157000</v>
+        <v>-139.15700000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>64573.367416</v>
+        <v>64573.367416000001</v>
       </c>
       <c r="BE2" s="1">
         <v>17.937047</v>
       </c>
       <c r="BF2" s="1">
-        <v>1297.980000</v>
+        <v>1297.98</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.920000</v>
+        <v>-220.92</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>64584.431178</v>
+        <v>64584.431177999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.940120</v>
+        <v>17.94012</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.600000</v>
+        <v>1368.6</v>
       </c>
       <c r="BL2" s="1">
-        <v>-356.475000</v>
+        <v>-356.47500000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>64595.982011</v>
       </c>
       <c r="BO2" s="1">
-        <v>17.943328</v>
+        <v>17.943328000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1484.020000</v>
+        <v>1484.02</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.562000</v>
+        <v>-576.56200000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>64607.817545</v>
+        <v>64607.817544999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.946616</v>
+        <v>17.946615999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1617.560000</v>
+        <v>1617.56</v>
       </c>
       <c r="BV2" s="1">
-        <v>-824.640000</v>
+        <v>-824.64</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>64618.522204</v>
+        <v>64618.522204000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>17.949590</v>
+        <v>17.949590000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1770.480000</v>
+        <v>1770.48</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1092.590000</v>
+        <v>-1092.5899999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>64629.528430</v>
+        <v>64629.528429999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.952647</v>
+        <v>17.952646999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2187.980000</v>
+        <v>2187.98</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1739.570000</v>
+        <v>-1739.57</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>64457.627984</v>
+        <v>64457.627983999999</v>
       </c>
       <c r="B3" s="1">
-        <v>17.904897</v>
+        <v>17.904896999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1143.730000</v>
+        <v>1143.73</v>
       </c>
       <c r="D3" s="1">
-        <v>-261.386000</v>
+        <v>-261.38600000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>64468.039014</v>
+        <v>64468.039014000002</v>
       </c>
       <c r="G3" s="1">
-        <v>17.907789</v>
+        <v>17.907789000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1166.100000</v>
+        <v>1166.0999999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-218.945000</v>
+        <v>-218.94499999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>64478.502614</v>
+        <v>64478.502613999997</v>
       </c>
       <c r="L3" s="1">
         <v>17.910695</v>
       </c>
       <c r="M3" s="1">
-        <v>1195.160000</v>
+        <v>1195.1600000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-152.805000</v>
+        <v>-152.80500000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>64488.676551</v>
+        <v>64488.676550999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.913521</v>
+        <v>17.913520999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.110000</v>
+        <v>1203.1099999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-130.643000</v>
+        <v>-130.643</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>64499.234361</v>
+        <v>64499.234361000003</v>
       </c>
       <c r="V3" s="1">
-        <v>17.916454</v>
+        <v>17.916454000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>1210.640000</v>
+        <v>1210.6400000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-109.408000</v>
+        <v>-109.408</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>64509.374606</v>
+        <v>64509.374605999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>17.919271</v>
+        <v>17.919270999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.846600</v>
+        <v>-91.846599999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>64519.655646</v>
+        <v>64519.655645999999</v>
       </c>
       <c r="AF3" s="1">
         <v>17.922127</v>
       </c>
       <c r="AG3" s="1">
-        <v>1223.060000</v>
+        <v>1223.06</v>
       </c>
       <c r="AH3" s="1">
-        <v>-87.188200</v>
+        <v>-87.188199999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>64529.757666</v>
+        <v>64529.757665999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.924933</v>
+        <v>17.924932999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1230.290000</v>
+        <v>1230.29</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.392100</v>
+        <v>-90.392099999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>64540.333891</v>
+        <v>64540.333891000002</v>
       </c>
       <c r="AP3" s="1">
         <v>17.927871</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1238.340000</v>
+        <v>1238.3399999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.299000</v>
+        <v>-102.29900000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>64551.687285</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.931024</v>
+        <v>17.931024000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1248.490000</v>
+        <v>1248.49</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.643000</v>
+        <v>-121.643</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>64562.811080</v>
+        <v>64562.811079999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>17.934114</v>
+        <v>17.934114000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1257.150000</v>
+        <v>1257.1500000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.146000</v>
+        <v>-139.14599999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>64573.741895</v>
+        <v>64573.741894999999</v>
       </c>
       <c r="BE3" s="1">
         <v>17.937151</v>
       </c>
       <c r="BF3" s="1">
-        <v>1297.970000</v>
+        <v>1297.97</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.934000</v>
+        <v>-220.934</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>64585.206425</v>
+        <v>64585.206424999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.940335</v>
+        <v>17.940335000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1368.550000</v>
+        <v>1368.55</v>
       </c>
       <c r="BL3" s="1">
-        <v>-356.482000</v>
+        <v>-356.48200000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>64596.398649</v>
+        <v>64596.398649000002</v>
       </c>
       <c r="BO3" s="1">
         <v>17.943444</v>
       </c>
       <c r="BP3" s="1">
-        <v>1484.020000</v>
+        <v>1484.02</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.634000</v>
+        <v>-576.63400000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>64608.272377</v>
+        <v>64608.272377000001</v>
       </c>
       <c r="BT3" s="1">
         <v>17.946742</v>
       </c>
       <c r="BU3" s="1">
-        <v>1617.530000</v>
+        <v>1617.53</v>
       </c>
       <c r="BV3" s="1">
-        <v>-824.726000</v>
+        <v>-824.726</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>64619.007291</v>
+        <v>64619.007291000002</v>
       </c>
       <c r="BY3" s="1">
         <v>17.949724</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1770.560000</v>
+        <v>1770.56</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1092.680000</v>
+        <v>-1092.68</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>64630.095852</v>
+        <v>64630.095851999999</v>
       </c>
       <c r="CD3" s="1">
         <v>17.952804</v>
       </c>
       <c r="CE3" s="1">
-        <v>2188.030000</v>
+        <v>2188.0300000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1738.930000</v>
+        <v>-1738.93</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>64457.983089</v>
+        <v>64457.983089000001</v>
       </c>
       <c r="B4" s="1">
         <v>17.904995</v>
       </c>
       <c r="C4" s="1">
-        <v>1143.800000</v>
+        <v>1143.8</v>
       </c>
       <c r="D4" s="1">
-        <v>-261.508000</v>
+        <v>-261.50799999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>64468.381746</v>
+        <v>64468.381745999999</v>
       </c>
       <c r="G4" s="1">
-        <v>17.907884</v>
+        <v>17.907883999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.460000</v>
+        <v>1166.46</v>
       </c>
       <c r="I4" s="1">
-        <v>-220.066000</v>
+        <v>-220.066</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>64478.848790</v>
+        <v>64478.848789999996</v>
       </c>
       <c r="L4" s="1">
         <v>17.910791</v>
       </c>
       <c r="M4" s="1">
-        <v>1194.970000</v>
+        <v>1194.97</v>
       </c>
       <c r="N4" s="1">
-        <v>-152.950000</v>
+        <v>-152.94999999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>64489.026232</v>
+        <v>64489.026231999997</v>
       </c>
       <c r="Q4" s="1">
         <v>17.913618</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.100000</v>
+        <v>1203.0999999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-130.583000</v>
+        <v>-130.583</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>64499.653021</v>
+        <v>64499.653020999998</v>
       </c>
       <c r="V4" s="1">
-        <v>17.916570</v>
+        <v>17.91657</v>
       </c>
       <c r="W4" s="1">
-        <v>1210.630000</v>
+        <v>1210.6300000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-109.396000</v>
+        <v>-109.396</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>64509.794188</v>
@@ -1070,345 +1486,345 @@
         <v>17.919387</v>
       </c>
       <c r="AB4" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.903000</v>
+        <v>-91.903000000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>64519.959694</v>
+        <v>64519.959693999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.922211</v>
+        <v>17.922211000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1223.070000</v>
+        <v>1223.07</v>
       </c>
       <c r="AH4" s="1">
-        <v>-87.127600</v>
+        <v>-87.127600000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>64530.106352</v>
+        <v>64530.106352000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.925030</v>
+        <v>17.92503</v>
       </c>
       <c r="AL4" s="1">
-        <v>1230.300000</v>
+        <v>1230.3</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.385700</v>
+        <v>-90.3857</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>64540.691971</v>
       </c>
       <c r="AP4" s="1">
-        <v>17.927970</v>
+        <v>17.927969999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1238.350000</v>
+        <v>1238.3499999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.270000</v>
+        <v>-102.27</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>64552.048867</v>
+        <v>64552.048866999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>17.931125</v>
+        <v>17.931125000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1248.510000</v>
+        <v>1248.51</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.637000</v>
+        <v>-121.637</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>64563.169669</v>
+        <v>64563.169669000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>17.934214</v>
+        <v>17.934214000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1257.130000</v>
+        <v>1257.1300000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.127000</v>
+        <v>-139.12700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>64574.464567</v>
+        <v>64574.464567000003</v>
       </c>
       <c r="BE4" s="1">
         <v>17.937351</v>
       </c>
       <c r="BF4" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.935000</v>
+        <v>-220.935</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>64585.581895</v>
+        <v>64585.581895000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.940439</v>
+        <v>17.940439000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.570000</v>
+        <v>1368.57</v>
       </c>
       <c r="BL4" s="1">
-        <v>-356.477000</v>
+        <v>-356.47699999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>64596.808872</v>
+        <v>64596.808872000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.943558</v>
+        <v>17.943557999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1484.020000</v>
+        <v>1484.02</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.589000</v>
+        <v>-576.58900000000006</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>64608.679592</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.946855</v>
+        <v>17.946854999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1617.450000</v>
+        <v>1617.45</v>
       </c>
       <c r="BV4" s="1">
-        <v>-824.778000</v>
+        <v>-824.77800000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>64619.785018</v>
+        <v>64619.785018000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.949940</v>
+        <v>17.949940000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1770.660000</v>
+        <v>1770.66</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1092.650000</v>
+        <v>-1092.6500000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>64630.929664</v>
+        <v>64630.929664000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.953036</v>
+        <v>17.953036000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2188.960000</v>
+        <v>2188.96</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1740.900000</v>
+        <v>-1740.9</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>64458.324337</v>
+        <v>64458.324336999998</v>
       </c>
       <c r="B5" s="1">
-        <v>17.905090</v>
+        <v>17.905090000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1143.820000</v>
+        <v>1143.82</v>
       </c>
       <c r="D5" s="1">
-        <v>-261.454000</v>
+        <v>-261.45400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>64468.723482</v>
+        <v>64468.723482000001</v>
       </c>
       <c r="G5" s="1">
-        <v>17.907979</v>
+        <v>17.907979000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1166.600000</v>
+        <v>1166.5999999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-220.143000</v>
+        <v>-220.143</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>64479.193508</v>
+        <v>64479.193507999997</v>
       </c>
       <c r="L5" s="1">
-        <v>17.910887</v>
+        <v>17.910886999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1194.850000</v>
+        <v>1194.8499999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-153.217000</v>
+        <v>-153.21700000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>64489.441847</v>
+        <v>64489.441847000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.913734</v>
+        <v>17.913734000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1203.060000</v>
+        <v>1203.06</v>
       </c>
       <c r="S5" s="1">
-        <v>-130.593000</v>
+        <v>-130.59299999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>64499.945656</v>
+        <v>64499.945656000004</v>
       </c>
       <c r="V5" s="1">
-        <v>17.916652</v>
+        <v>17.916651999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1210.740000</v>
+        <v>1210.74</v>
       </c>
       <c r="X5" s="1">
-        <v>-109.350000</v>
+        <v>-109.35</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>64510.092316</v>
+        <v>64510.092316000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>17.919470</v>
+        <v>17.91947</v>
       </c>
       <c r="AB5" s="1">
-        <v>1218.420000</v>
+        <v>1218.42</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.867000</v>
+        <v>-91.867000000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>64520.303919</v>
+        <v>64520.303918999998</v>
       </c>
       <c r="AF5" s="1">
         <v>17.922307</v>
       </c>
       <c r="AG5" s="1">
-        <v>1223.060000</v>
+        <v>1223.06</v>
       </c>
       <c r="AH5" s="1">
-        <v>-87.217800</v>
+        <v>-87.217799999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>64530.451603</v>
+        <v>64530.451603000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>17.925125</v>
+        <v>17.925125000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1230.290000</v>
+        <v>1230.29</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.406300</v>
+        <v>-90.406300000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>64541.052067</v>
+        <v>64541.052066999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.928070</v>
+        <v>17.928070000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1238.330000</v>
+        <v>1238.33</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.308000</v>
+        <v>-102.30800000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>64552.778281</v>
+        <v>64552.778280999999</v>
       </c>
       <c r="AU5" s="1">
         <v>17.931327</v>
       </c>
       <c r="AV5" s="1">
-        <v>1248.490000</v>
+        <v>1248.49</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.652000</v>
+        <v>-121.652</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>64563.881924</v>
+        <v>64563.881924000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>17.934412</v>
+        <v>17.934411999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1257.130000</v>
+        <v>1257.1300000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.172000</v>
+        <v>-139.172</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>64574.850949</v>
@@ -1417,1555 +1833,1555 @@
         <v>17.937459</v>
       </c>
       <c r="BF5" s="1">
-        <v>1297.990000</v>
+        <v>1297.99</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.956000</v>
+        <v>-220.95599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>64585.983160</v>
+        <v>64585.983160000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.940551</v>
+        <v>17.940550999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.550000</v>
+        <v>1368.55</v>
       </c>
       <c r="BL5" s="1">
-        <v>-356.531000</v>
+        <v>-356.53100000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>64597.204680</v>
+        <v>64597.204680000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.943668</v>
+        <v>17.943667999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1484.070000</v>
+        <v>1484.07</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.605000</v>
+        <v>-576.60500000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>64609.424088</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.947062</v>
+        <v>17.947061999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1617.350000</v>
+        <v>1617.35</v>
       </c>
       <c r="BV5" s="1">
-        <v>-824.815000</v>
+        <v>-824.81500000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>64619.909057</v>
+        <v>64619.909056999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>17.949975</v>
+        <v>17.949974999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1770.260000</v>
+        <v>1770.26</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1092.630000</v>
+        <v>-1092.6300000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>64631.169195</v>
+        <v>64631.169195000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.953103</v>
+        <v>17.953102999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2190.910000</v>
+        <v>2190.91</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1739.230000</v>
+        <v>-1739.23</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>64458.668064</v>
+        <v>64458.668063999998</v>
       </c>
       <c r="B6" s="1">
         <v>17.905186</v>
       </c>
       <c r="C6" s="1">
-        <v>1143.670000</v>
+        <v>1143.67</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.431000</v>
+        <v>-261.43099999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>64469.143106</v>
+        <v>64469.143106000003</v>
       </c>
       <c r="G6" s="1">
-        <v>17.908095</v>
+        <v>17.908094999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1166.040000</v>
+        <v>1166.04</v>
       </c>
       <c r="I6" s="1">
-        <v>-219.659000</v>
+        <v>-219.65899999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>64479.616597</v>
       </c>
       <c r="L6" s="1">
-        <v>17.911005</v>
+        <v>17.911004999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1194.980000</v>
+        <v>1194.98</v>
       </c>
       <c r="N6" s="1">
-        <v>-152.981000</v>
+        <v>-152.98099999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>64489.723078</v>
+        <v>64489.723078000003</v>
       </c>
       <c r="Q6" s="1">
         <v>17.913812</v>
       </c>
       <c r="R6" s="1">
-        <v>1203.120000</v>
+        <v>1203.1199999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-130.553000</v>
+        <v>-130.553</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>64500.288362</v>
+        <v>64500.288361999999</v>
       </c>
       <c r="V6" s="1">
-        <v>17.916747</v>
+        <v>17.916747000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1210.740000</v>
+        <v>1210.74</v>
       </c>
       <c r="X6" s="1">
-        <v>-109.260000</v>
+        <v>-109.26</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>64510.445467</v>
+        <v>64510.445466999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.919568</v>
+        <v>17.919568000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.762200</v>
+        <v>-91.762200000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>64520.647865</v>
+        <v>64520.647864999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.922402</v>
+        <v>17.922402000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1223.150000</v>
+        <v>1223.1500000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-87.209800</v>
+        <v>-87.209800000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>64530.800754</v>
+        <v>64530.800754000004</v>
       </c>
       <c r="AK6" s="1">
-        <v>17.925222</v>
+        <v>17.925222000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1230.300000</v>
+        <v>1230.3</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.382200</v>
+        <v>-90.382199999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>64541.771793</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.928270</v>
+        <v>17.928270000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1238.340000</v>
+        <v>1238.3399999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.294000</v>
+        <v>-102.294</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>64553.171314</v>
+        <v>64553.171313999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>17.931436</v>
+        <v>17.931436000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1248.510000</v>
+        <v>1248.51</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.664000</v>
+        <v>-121.664</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>64564.245523</v>
+        <v>64564.245522999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.934513</v>
+        <v>17.934512999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1257.130000</v>
+        <v>1257.1300000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.158000</v>
+        <v>-139.15799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>64575.211576</v>
+        <v>64575.211576000002</v>
       </c>
       <c r="BE6" s="1">
         <v>17.937559</v>
       </c>
       <c r="BF6" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.943000</v>
+        <v>-220.94300000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>64586.672636</v>
+        <v>64586.672636000003</v>
       </c>
       <c r="BJ6" s="1">
         <v>17.940742</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.560000</v>
+        <v>1368.56</v>
       </c>
       <c r="BL6" s="1">
-        <v>-356.508000</v>
+        <v>-356.50799999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>64597.955593</v>
+        <v>64597.955592999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.943877</v>
+        <v>17.943877000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1484.080000</v>
+        <v>1484.08</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.620000</v>
+        <v>-576.62</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>64609.538696</v>
+        <v>64609.538696000003</v>
       </c>
       <c r="BT6" s="1">
         <v>17.947094</v>
       </c>
       <c r="BU6" s="1">
-        <v>1617.210000</v>
+        <v>1617.21</v>
       </c>
       <c r="BV6" s="1">
-        <v>-824.848000</v>
+        <v>-824.84799999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>64620.328138</v>
+        <v>64620.328137999997</v>
       </c>
       <c r="BY6" s="1">
         <v>17.950091</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1770.480000</v>
+        <v>1770.48</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1092.980000</v>
+        <v>-1092.98</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>64631.699914</v>
+        <v>64631.699913999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>17.953250</v>
+        <v>17.953250000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2188.090000</v>
+        <v>2188.09</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1738.850000</v>
+        <v>-1738.85</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>64459.096638</v>
+        <v>64459.096638000003</v>
       </c>
       <c r="B7" s="1">
-        <v>17.905305</v>
+        <v>17.905304999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1143.810000</v>
+        <v>1143.81</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.591000</v>
+        <v>-261.59100000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>64469.424305</v>
       </c>
       <c r="G7" s="1">
-        <v>17.908173</v>
+        <v>17.908173000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.480000</v>
+        <v>1166.48</v>
       </c>
       <c r="I7" s="1">
-        <v>-220.490000</v>
+        <v>-220.49</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>64479.883948</v>
+        <v>64479.883948000002</v>
       </c>
       <c r="L7" s="1">
-        <v>17.911079</v>
+        <v>17.911079000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1194.930000</v>
+        <v>1194.93</v>
       </c>
       <c r="N7" s="1">
-        <v>-153.144000</v>
+        <v>-153.14400000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>64490.071270</v>
+        <v>64490.07127</v>
       </c>
       <c r="Q7" s="1">
         <v>17.913909</v>
       </c>
       <c r="R7" s="1">
-        <v>1203.160000</v>
+        <v>1203.1600000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-130.573000</v>
+        <v>-130.57300000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>64500.631592</v>
+        <v>64500.631591999998</v>
       </c>
       <c r="V7" s="1">
-        <v>17.916842</v>
+        <v>17.916841999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1210.740000</v>
+        <v>1210.74</v>
       </c>
       <c r="X7" s="1">
-        <v>-109.433000</v>
+        <v>-109.43300000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>64510.797148</v>
+        <v>64510.797147999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.919666</v>
+        <v>17.919665999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1218.340000</v>
+        <v>1218.3399999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.835300</v>
+        <v>-91.835300000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>64521.335598</v>
+        <v>64521.335597999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.922593</v>
+        <v>17.922592999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1223.100000</v>
+        <v>1223.0999999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-87.203200</v>
+        <v>-87.203199999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>64531.497631</v>
+        <v>64531.497630999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>17.925416</v>
+        <v>17.925415999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1230.310000</v>
+        <v>1230.31</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.393900</v>
+        <v>-90.393900000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>64542.133378</v>
+        <v>64542.133377999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>17.928370</v>
+        <v>17.928370000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1238.340000</v>
+        <v>1238.3399999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.295000</v>
+        <v>-102.295</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>64553.536371</v>
+        <v>64553.536371000002</v>
       </c>
       <c r="AU7" s="1">
         <v>17.931538</v>
       </c>
       <c r="AV7" s="1">
-        <v>1248.530000</v>
+        <v>1248.53</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.651000</v>
+        <v>-121.651</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>64564.599672</v>
+        <v>64564.599671999997</v>
       </c>
       <c r="AZ7" s="1">
         <v>17.934611</v>
       </c>
       <c r="BA7" s="1">
-        <v>1257.130000</v>
+        <v>1257.1300000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.179000</v>
+        <v>-139.179</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>64575.887093</v>
+        <v>64575.887092999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.937746</v>
+        <v>17.937746000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.944000</v>
+        <v>-220.94399999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>64587.141813</v>
+        <v>64587.141813000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>17.940873</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.600000</v>
+        <v>1368.6</v>
       </c>
       <c r="BL7" s="1">
-        <v>-356.506000</v>
+        <v>-356.50599999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>64598.422860</v>
+        <v>64598.422859999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>17.944006</v>
+        <v>17.944006000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1484.060000</v>
+        <v>1484.06</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.626000</v>
+        <v>-576.62599999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>64609.982123</v>
+        <v>64609.982123000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.947217</v>
+        <v>17.947216999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1617.180000</v>
+        <v>1617.18</v>
       </c>
       <c r="BV7" s="1">
-        <v>-824.866000</v>
+        <v>-824.86599999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>64620.753705</v>
+        <v>64620.753705000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.950209</v>
+        <v>17.950209000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1770.530000</v>
+        <v>1770.53</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1092.540000</v>
+        <v>-1092.54</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>64632.237893</v>
+        <v>64632.237892999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.953399</v>
+        <v>17.953399000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2190.050000</v>
+        <v>2190.0500000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1740.200000</v>
+        <v>-1740.2</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>64459.359486</v>
+        <v>64459.359486000001</v>
       </c>
       <c r="B8" s="1">
-        <v>17.905378</v>
+        <v>17.905377999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1143.800000</v>
+        <v>1143.8</v>
       </c>
       <c r="D8" s="1">
-        <v>-261.689000</v>
+        <v>-261.68900000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>64469.766048</v>
+        <v>64469.766047999998</v>
       </c>
       <c r="G8" s="1">
         <v>17.908268</v>
       </c>
       <c r="H8" s="1">
-        <v>1166.190000</v>
+        <v>1166.19</v>
       </c>
       <c r="I8" s="1">
-        <v>-220.482000</v>
+        <v>-220.482</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>64480.229650</v>
+        <v>64480.229650000001</v>
       </c>
       <c r="L8" s="1">
         <v>17.911175</v>
       </c>
       <c r="M8" s="1">
-        <v>1194.820000</v>
+        <v>1194.82</v>
       </c>
       <c r="N8" s="1">
-        <v>-153.103000</v>
+        <v>-153.10300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>64490.422439</v>
+        <v>64490.422439000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>17.914006</v>
+        <v>17.914006000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.020000</v>
+        <v>1203.02</v>
       </c>
       <c r="S8" s="1">
-        <v>-130.665000</v>
+        <v>-130.66499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>64501.317062</v>
+        <v>64501.317062000002</v>
       </c>
       <c r="V8" s="1">
         <v>17.917033</v>
       </c>
       <c r="W8" s="1">
-        <v>1210.450000</v>
+        <v>1210.45</v>
       </c>
       <c r="X8" s="1">
-        <v>-109.200000</v>
+        <v>-109.2</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>64511.490009</v>
+        <v>64511.490009000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.919858</v>
+        <v>17.919858000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1218.290000</v>
+        <v>1218.29</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.968300</v>
+        <v>-91.968299999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>64521.680317</v>
+        <v>64521.680316999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.922689</v>
+        <v>17.922688999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1223.090000</v>
+        <v>1223.0899999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-87.168300</v>
+        <v>-87.168300000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>64531.852766</v>
+        <v>64531.852766000004</v>
       </c>
       <c r="AK8" s="1">
-        <v>17.925515</v>
+        <v>17.925515000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1230.300000</v>
+        <v>1230.3</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.389200</v>
+        <v>-90.389200000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>64542.491986</v>
+        <v>64542.491986000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>17.928470</v>
+        <v>17.928470000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1238.350000</v>
+        <v>1238.3499999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.330000</v>
+        <v>-102.33</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>64554.206993</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.931724</v>
+        <v>17.931723999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1248.510000</v>
+        <v>1248.51</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.677000</v>
+        <v>-121.67700000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>64565.265802</v>
+        <v>64565.265802000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.934796</v>
+        <v>17.934795999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1257.130000</v>
+        <v>1257.1300000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.141000</v>
+        <v>-139.14099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>64576.326333</v>
+        <v>64576.326332999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.937868</v>
+        <v>17.937868000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.945000</v>
+        <v>-220.94499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>64587.518774</v>
+        <v>64587.518773999996</v>
       </c>
       <c r="BJ8" s="1">
         <v>17.940977</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.560000</v>
+        <v>1368.56</v>
       </c>
       <c r="BL8" s="1">
-        <v>-356.521000</v>
+        <v>-356.52100000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>64598.833014</v>
+        <v>64598.833014000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.944120</v>
+        <v>17.944120000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1484.110000</v>
+        <v>1484.11</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.615000</v>
+        <v>-576.61500000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>64610.390795</v>
+        <v>64610.390794999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.947331</v>
+        <v>17.947330999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1617.000000</v>
+        <v>1617</v>
       </c>
       <c r="BV8" s="1">
-        <v>-824.843000</v>
+        <v>-824.84299999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>64621.179274</v>
+        <v>64621.179274000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.950328</v>
+        <v>17.950327999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1770.410000</v>
+        <v>1770.41</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1092.670000</v>
+        <v>-1092.67</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>64632.778714</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.953550</v>
+        <v>17.95355</v>
       </c>
       <c r="CE8" s="1">
-        <v>2189.960000</v>
+        <v>2189.96</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1738.080000</v>
+        <v>-1738.08</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>64459.701727</v>
       </c>
       <c r="B9" s="1">
-        <v>17.905473</v>
+        <v>17.905473000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1143.540000</v>
+        <v>1143.54</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.438000</v>
+        <v>-261.43799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>64470.111264</v>
+        <v>64470.111263999999</v>
       </c>
       <c r="G9" s="1">
-        <v>17.908364</v>
+        <v>17.908363999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1166.230000</v>
+        <v>1166.23</v>
       </c>
       <c r="I9" s="1">
-        <v>-219.846000</v>
+        <v>-219.846</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>64480.580820</v>
+        <v>64480.580820000003</v>
       </c>
       <c r="L9" s="1">
         <v>17.911272</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.120000</v>
+        <v>1195.1199999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-153.077000</v>
+        <v>-153.077</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>64491.115350</v>
+        <v>64491.11535</v>
       </c>
       <c r="Q9" s="1">
         <v>17.914199</v>
       </c>
       <c r="R9" s="1">
-        <v>1203.070000</v>
+        <v>1203.07</v>
       </c>
       <c r="S9" s="1">
-        <v>-130.581000</v>
+        <v>-130.58099999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>64501.663767</v>
+        <v>64501.663766999998</v>
       </c>
       <c r="V9" s="1">
-        <v>17.917129</v>
+        <v>17.917128999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1210.710000</v>
+        <v>1210.71</v>
       </c>
       <c r="X9" s="1">
-        <v>-109.503000</v>
+        <v>-109.503</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>64511.842200</v>
+        <v>64511.842199999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>17.919956</v>
+        <v>17.919955999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.835800</v>
+        <v>-91.835800000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>64522.024045</v>
+        <v>64522.024044999998</v>
       </c>
       <c r="AF9" s="1">
         <v>17.922784</v>
       </c>
       <c r="AG9" s="1">
-        <v>1223.080000</v>
+        <v>1223.08</v>
       </c>
       <c r="AH9" s="1">
-        <v>-87.165900</v>
+        <v>-87.165899999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>64532.194014</v>
+        <v>64532.194014000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.925609</v>
+        <v>17.925609000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1230.280000</v>
+        <v>1230.28</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.413500</v>
+        <v>-90.413499999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>64543.159103</v>
+        <v>64543.159102999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>17.928655</v>
+        <v>17.928654999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1238.370000</v>
+        <v>1238.3699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.305000</v>
+        <v>-102.30500000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>64554.659312</v>
+        <v>64554.659312000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.931850</v>
+        <v>17.931850000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1248.500000</v>
+        <v>1248.5</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.656000</v>
+        <v>-121.65600000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>64565.712162</v>
+        <v>64565.712162000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.934920</v>
+        <v>17.934920000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1257.140000</v>
+        <v>1257.1400000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.151000</v>
+        <v>-139.15100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>64576.689652</v>
+        <v>64576.689652000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.937969</v>
+        <v>17.937968999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1297.990000</v>
+        <v>1297.99</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.932000</v>
+        <v>-220.93199999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>64587.898708</v>
+        <v>64587.898708000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>17.941083</v>
+        <v>17.941082999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.590000</v>
+        <v>1368.59</v>
       </c>
       <c r="BL9" s="1">
-        <v>-356.492000</v>
+        <v>-356.49200000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>64599.445573</v>
+        <v>64599.445572999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>17.944290</v>
+        <v>17.944289999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1484.060000</v>
+        <v>1484.06</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.722000</v>
+        <v>-576.72199999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>64610.819370</v>
+        <v>64610.819369999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>17.947450</v>
+        <v>17.94745</v>
       </c>
       <c r="BU9" s="1">
-        <v>1617.030000</v>
+        <v>1617.03</v>
       </c>
       <c r="BV9" s="1">
-        <v>-824.892000</v>
+        <v>-824.89200000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>64621.618263</v>
+        <v>64621.618262999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.950450</v>
+        <v>17.95045</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1770.230000</v>
+        <v>1770.23</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1092.610000</v>
+        <v>-1092.6099999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>64633.316874</v>
+        <v>64633.316873999996</v>
       </c>
       <c r="CD9" s="1">
         <v>17.953699</v>
       </c>
       <c r="CE9" s="1">
-        <v>2188.300000</v>
+        <v>2188.3000000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1740.260000</v>
+        <v>-1740.26</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>64460.043469</v>
+        <v>64460.043468999997</v>
       </c>
       <c r="B10" s="1">
-        <v>17.905568</v>
+        <v>17.905567999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1143.820000</v>
+        <v>1143.82</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.547000</v>
+        <v>-261.54700000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>64470.805664</v>
       </c>
       <c r="G10" s="1">
-        <v>17.908557</v>
+        <v>17.908556999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1166.430000</v>
+        <v>1166.43</v>
       </c>
       <c r="I10" s="1">
-        <v>-220.036000</v>
+        <v>-220.036</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>64481.269798</v>
+        <v>64481.269798000001</v>
       </c>
       <c r="L10" s="1">
-        <v>17.911464</v>
+        <v>17.911463999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1194.940000</v>
+        <v>1194.94</v>
       </c>
       <c r="N10" s="1">
-        <v>-153.110000</v>
+        <v>-153.11000000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>64491.468035</v>
+        <v>64491.468034999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.914297</v>
+        <v>17.914297000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.010000</v>
+        <v>1203.01</v>
       </c>
       <c r="S10" s="1">
-        <v>-130.584000</v>
+        <v>-130.584</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>64502.006037</v>
+        <v>64502.006036999999</v>
       </c>
       <c r="V10" s="1">
-        <v>17.917224</v>
+        <v>17.917224000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1210.840000</v>
+        <v>1210.8399999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-109.253000</v>
+        <v>-109.253</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>64512.188904</v>
+        <v>64512.188904000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.920052</v>
+        <v>17.920051999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1218.300000</v>
+        <v>1218.3</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.873900</v>
+        <v>-91.873900000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>64522.676778</v>
+        <v>64522.676778000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>17.922966</v>
+        <v>17.922965999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1223.080000</v>
+        <v>1223.08</v>
       </c>
       <c r="AH10" s="1">
-        <v>-87.161900</v>
+        <v>-87.161900000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>64532.889434</v>
+        <v>64532.889433999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.925803</v>
+        <v>17.925802999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>1230.290000</v>
+        <v>1230.29</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.356200</v>
+        <v>-90.356200000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>64543.601502</v>
+        <v>64543.601501999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.928778</v>
+        <v>17.928778000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1238.350000</v>
+        <v>1238.3499999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.307000</v>
+        <v>-102.307</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>64555.024399</v>
+        <v>64555.024399000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.931951</v>
+        <v>17.931951000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1248.510000</v>
+        <v>1248.51</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.644000</v>
+        <v>-121.64400000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>64566.068785</v>
+        <v>64566.068785000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>17.935019</v>
       </c>
       <c r="BA10" s="1">
-        <v>1257.120000</v>
+        <v>1257.1199999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.138000</v>
+        <v>-139.13800000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>64577.050706</v>
+        <v>64577.050706000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.938070</v>
+        <v>17.93807</v>
       </c>
       <c r="BF10" s="1">
-        <v>1297.960000</v>
+        <v>1297.96</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.939000</v>
+        <v>-220.93899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>64588.321833</v>
+        <v>64588.321833000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>17.941201</v>
       </c>
       <c r="BK10" s="1">
-        <v>1368.590000</v>
+        <v>1368.59</v>
       </c>
       <c r="BL10" s="1">
-        <v>-356.528000</v>
+        <v>-356.52800000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>64599.650951</v>
+        <v>64599.650951000003</v>
       </c>
       <c r="BO10" s="1">
         <v>17.944347</v>
       </c>
       <c r="BP10" s="1">
-        <v>1484.040000</v>
+        <v>1484.04</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.610000</v>
+        <v>-576.61</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>64611.251349</v>
+        <v>64611.251348999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.947570</v>
+        <v>17.947569999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1616.870000</v>
+        <v>1616.87</v>
       </c>
       <c r="BV10" s="1">
-        <v>-824.812000</v>
+        <v>-824.81200000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>64622.038841</v>
+        <v>64622.038841000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.950566</v>
+        <v>17.950565999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1770.290000</v>
+        <v>1770.29</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1092.870000</v>
+        <v>-1092.8699999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>64633.860489</v>
+        <v>64633.860488999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.953850</v>
+        <v>17.953849999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2190.860000</v>
+        <v>2190.86</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1738.980000</v>
+        <v>-1738.98</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>64460.724973</v>
+        <v>64460.724972999997</v>
       </c>
       <c r="B11" s="1">
-        <v>17.905757</v>
+        <v>17.905757000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1143.690000</v>
+        <v>1143.69</v>
       </c>
       <c r="D11" s="1">
-        <v>-261.285000</v>
+        <v>-261.28500000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>64471.149886</v>
+        <v>64471.149885999999</v>
       </c>
       <c r="G11" s="1">
-        <v>17.908653</v>
+        <v>17.908653000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1166.020000</v>
+        <v>1166.02</v>
       </c>
       <c r="I11" s="1">
-        <v>-219.878000</v>
+        <v>-219.87799999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>64481.617458</v>
+        <v>64481.617458000001</v>
       </c>
       <c r="L11" s="1">
-        <v>17.911560</v>
+        <v>17.911560000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1194.960000</v>
+        <v>1194.96</v>
       </c>
       <c r="N11" s="1">
-        <v>-152.695000</v>
+        <v>-152.69499999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>64491.816195</v>
+        <v>64491.816194999999</v>
       </c>
       <c r="Q11" s="1">
         <v>17.914393</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.120000</v>
+        <v>1203.1199999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-130.529000</v>
+        <v>-130.529</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>64502.667669</v>
+        <v>64502.667669000002</v>
       </c>
       <c r="V11" s="1">
-        <v>17.917408</v>
+        <v>17.917408000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1210.620000</v>
+        <v>1210.6199999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-109.289000</v>
+        <v>-109.289</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>64512.852056</v>
+        <v>64512.852056000003</v>
       </c>
       <c r="AA11" s="1">
         <v>17.920237</v>
       </c>
       <c r="AB11" s="1">
-        <v>1218.240000</v>
+        <v>1218.24</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.833200</v>
+        <v>-91.833200000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>64523.053244</v>
+        <v>64523.053244000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.923070</v>
+        <v>17.923069999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1223.070000</v>
+        <v>1223.07</v>
       </c>
       <c r="AH11" s="1">
-        <v>-87.132500</v>
+        <v>-87.132499999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>64533.237597</v>
+        <v>64533.237596999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.925899</v>
+        <v>17.925899000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1230.260000</v>
+        <v>1230.26</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.394300</v>
+        <v>-90.394300000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>64543.959118</v>
+        <v>64543.959117999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.928878</v>
+        <v>17.928878000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1238.340000</v>
+        <v>1238.3399999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.281000</v>
+        <v>-102.28100000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>64555.390416</v>
+        <v>64555.390416000002</v>
       </c>
       <c r="AU11" s="1">
         <v>17.932053</v>
       </c>
       <c r="AV11" s="1">
-        <v>1248.550000</v>
+        <v>1248.55</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.667000</v>
+        <v>-121.667</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>64566.497861</v>
+        <v>64566.497861000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.935138</v>
+        <v>17.935137999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1257.110000</v>
+        <v>1257.1099999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.157000</v>
+        <v>-139.15700000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>64577.474787</v>
+        <v>64577.474786999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.938187</v>
+        <v>17.938186999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.934000</v>
+        <v>-220.934</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>64588.663043</v>
@@ -2974,1163 +3390,1163 @@
         <v>17.941295</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.560000</v>
+        <v>1368.56</v>
       </c>
       <c r="BL11" s="1">
-        <v>-356.554000</v>
+        <v>-356.55399999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>64600.048213</v>
+        <v>64600.048213000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.944458</v>
+        <v>17.944458000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1484.080000</v>
+        <v>1484.08</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.627000</v>
+        <v>-576.62699999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>64611.663525</v>
+        <v>64611.663525000004</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.947684</v>
+        <v>17.947683999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1616.800000</v>
+        <v>1616.8</v>
       </c>
       <c r="BV11" s="1">
-        <v>-824.825000</v>
+        <v>-824.82500000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>64622.460936</v>
+        <v>64622.460936000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.950684</v>
+        <v>17.950683999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1770.370000</v>
+        <v>1770.37</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1092.860000</v>
+        <v>-1092.8599999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>64634.398188</v>
+        <v>64634.398187999999</v>
       </c>
       <c r="CD11" s="1">
         <v>17.953999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2188.140000</v>
+        <v>2188.14</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1738.670000</v>
+        <v>-1738.67</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>64461.070188</v>
+        <v>64461.070187999998</v>
       </c>
       <c r="B12" s="1">
         <v>17.905853</v>
       </c>
       <c r="C12" s="1">
-        <v>1143.880000</v>
+        <v>1143.8800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.294000</v>
+        <v>-261.29399999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>64471.493150</v>
+        <v>64471.493150000002</v>
       </c>
       <c r="G12" s="1">
-        <v>17.908748</v>
+        <v>17.908747999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1165.950000</v>
+        <v>1165.95</v>
       </c>
       <c r="I12" s="1">
-        <v>-220.166000</v>
+        <v>-220.166</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>64482.272673</v>
+        <v>64482.272672999999</v>
       </c>
       <c r="L12" s="1">
         <v>17.911742</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.020000</v>
+        <v>1195.02</v>
       </c>
       <c r="N12" s="1">
-        <v>-152.875000</v>
+        <v>-152.875</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>64492.475874</v>
+        <v>64492.475874000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.914577</v>
+        <v>17.914577000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1203.140000</v>
+        <v>1203.1400000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-130.610000</v>
+        <v>-130.61000000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>64503.045620</v>
+        <v>64503.045619999997</v>
       </c>
       <c r="V12" s="1">
         <v>17.917513</v>
       </c>
       <c r="W12" s="1">
-        <v>1210.760000</v>
+        <v>1210.76</v>
       </c>
       <c r="X12" s="1">
-        <v>-109.349000</v>
+        <v>-109.349</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>64513.236460</v>
+        <v>64513.23646</v>
       </c>
       <c r="AA12" s="1">
-        <v>17.920343</v>
+        <v>17.920342999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.820100</v>
+        <v>-91.820099999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>64523.398489</v>
+        <v>64523.398488999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.923166</v>
+        <v>17.923165999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>1223.030000</v>
+        <v>1223.03</v>
       </c>
       <c r="AH12" s="1">
-        <v>-87.226500</v>
+        <v>-87.226500000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>64533.590253</v>
+        <v>64533.590253000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>17.925997</v>
+        <v>17.925996999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1230.280000</v>
+        <v>1230.28</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.376400</v>
+        <v>-90.376400000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>64544.319711</v>
+        <v>64544.319710999996</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.928978</v>
+        <v>17.928978000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1238.380000</v>
+        <v>1238.3800000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.311000</v>
+        <v>-102.31100000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>64555.810032</v>
+        <v>64555.810032000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>17.932169</v>
+        <v>17.932168999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1248.470000</v>
+        <v>1248.47</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.632000</v>
+        <v>-121.63200000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>64566.785540</v>
+        <v>64566.785539999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>17.935218</v>
+        <v>17.935217999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1257.130000</v>
+        <v>1257.1300000000001</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.132000</v>
+        <v>-139.13200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>64577.771394</v>
+        <v>64577.771394000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.938270</v>
+        <v>17.938269999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1298.020000</v>
+        <v>1298.02</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.943000</v>
+        <v>-220.94300000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>64589.040002</v>
+        <v>64589.040002000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.941400</v>
+        <v>17.941400000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.600000</v>
+        <v>1368.6</v>
       </c>
       <c r="BL12" s="1">
-        <v>-356.542000</v>
+        <v>-356.54199999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>64600.471301</v>
+        <v>64600.471300999998</v>
       </c>
       <c r="BO12" s="1">
         <v>17.944575</v>
       </c>
       <c r="BP12" s="1">
-        <v>1484.020000</v>
+        <v>1484.02</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.597000</v>
+        <v>-576.59699999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>64612.095540</v>
+        <v>64612.095540000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.947804</v>
+        <v>17.947804000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1616.820000</v>
+        <v>1616.82</v>
       </c>
       <c r="BV12" s="1">
-        <v>-824.601000</v>
+        <v>-824.601</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>64622.908833</v>
+        <v>64622.908833000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.950808</v>
+        <v>17.950807999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1770.450000</v>
+        <v>1770.45</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1092.720000</v>
+        <v>-1092.72</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>64634.940805</v>
+        <v>64634.940804999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>17.954150</v>
+        <v>17.954149999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>2189.770000</v>
+        <v>2189.77</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1740.270000</v>
+        <v>-1740.27</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>64461.409484</v>
+        <v>64461.409484000003</v>
       </c>
       <c r="B13" s="1">
-        <v>17.905947</v>
+        <v>17.905947000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1143.660000</v>
+        <v>1143.6600000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.588000</v>
+        <v>-261.58800000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>64472.158253</v>
+        <v>64472.158253000001</v>
       </c>
       <c r="G13" s="1">
-        <v>17.908933</v>
+        <v>17.908933000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.260000</v>
+        <v>1166.26</v>
       </c>
       <c r="I13" s="1">
-        <v>-219.529000</v>
+        <v>-219.529</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>64482.653103</v>
+        <v>64482.653102999997</v>
       </c>
       <c r="L13" s="1">
-        <v>17.911848</v>
+        <v>17.911847999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1194.990000</v>
+        <v>1194.99</v>
       </c>
       <c r="N13" s="1">
-        <v>-153.382000</v>
+        <v>-153.38200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>64492.859778</v>
+        <v>64492.859777999998</v>
       </c>
       <c r="Q13" s="1">
         <v>17.914683</v>
       </c>
       <c r="R13" s="1">
-        <v>1203.090000</v>
+        <v>1203.0899999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-130.682000</v>
+        <v>-130.68199999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>64503.388388</v>
+        <v>64503.388387999999</v>
       </c>
       <c r="V13" s="1">
-        <v>17.917608</v>
+        <v>17.917608000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1210.620000</v>
+        <v>1210.6199999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-109.380000</v>
+        <v>-109.38</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>64513.574695</v>
+        <v>64513.574695000003</v>
       </c>
       <c r="AA13" s="1">
         <v>17.920437</v>
       </c>
       <c r="AB13" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.815200</v>
+        <v>-91.815200000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>64523.740202</v>
+        <v>64523.740202000001</v>
       </c>
       <c r="AF13" s="1">
         <v>17.923261</v>
       </c>
       <c r="AG13" s="1">
-        <v>1223.120000</v>
+        <v>1223.1199999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-87.165600</v>
+        <v>-87.165599999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>64534.015325</v>
       </c>
       <c r="AK13" s="1">
-        <v>17.926115</v>
+        <v>17.926114999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1230.310000</v>
+        <v>1230.31</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.369400</v>
+        <v>-90.369399999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>64544.746301</v>
+        <v>64544.746300999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.929096</v>
+        <v>17.929096000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1238.370000</v>
+        <v>1238.3699999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.290000</v>
+        <v>-102.29</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>64556.118559</v>
+        <v>64556.118559000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.932255</v>
+        <v>17.932255000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1248.530000</v>
+        <v>1248.53</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.654000</v>
+        <v>-121.654</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>64567.146107</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.935318</v>
+        <v>17.935317999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1257.170000</v>
+        <v>1257.17</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.143000</v>
+        <v>-139.143</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>64578.132978</v>
+        <v>64578.132978000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>17.938370</v>
+        <v>17.938369999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.963000</v>
+        <v>-220.96299999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>64589.418947</v>
+        <v>64589.418946999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.941505</v>
+        <v>17.941504999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.570000</v>
+        <v>1368.57</v>
       </c>
       <c r="BL13" s="1">
-        <v>-356.507000</v>
+        <v>-356.50700000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>64601.289700</v>
+        <v>64601.289700000001</v>
       </c>
       <c r="BO13" s="1">
         <v>17.944803</v>
       </c>
       <c r="BP13" s="1">
-        <v>1484.120000</v>
+        <v>1484.12</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.700000</v>
+        <v>-576.70000000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>64612.524115</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.947923</v>
+        <v>17.947922999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1616.680000</v>
+        <v>1616.68</v>
       </c>
       <c r="BV13" s="1">
-        <v>-824.626000</v>
+        <v>-824.62599999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>64623.341365</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.950928</v>
+        <v>17.950928000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1770.420000</v>
+        <v>1770.42</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1092.670000</v>
+        <v>-1092.67</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>64635.477447</v>
+        <v>64635.477446999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.954299</v>
+        <v>17.954298999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2189.650000</v>
+        <v>2189.65</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1737.910000</v>
+        <v>-1737.91</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>64462.067146</v>
+        <v>64462.067146000001</v>
       </c>
       <c r="B14" s="1">
-        <v>17.906130</v>
+        <v>17.906130000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1143.630000</v>
+        <v>1143.6300000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.779000</v>
+        <v>-261.779</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>64472.530785</v>
+        <v>64472.530785000003</v>
       </c>
       <c r="G14" s="1">
         <v>17.909036</v>
       </c>
       <c r="H14" s="1">
-        <v>1167.050000</v>
+        <v>1167.05</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.668000</v>
+        <v>-219.66800000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>64483.000304</v>
+        <v>64483.000304000001</v>
       </c>
       <c r="L14" s="1">
-        <v>17.911945</v>
+        <v>17.911944999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.010000</v>
+        <v>1195.01</v>
       </c>
       <c r="N14" s="1">
-        <v>-152.971000</v>
+        <v>-152.971</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>64493.209955</v>
+        <v>64493.209954999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.914781</v>
+        <v>17.914781000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.070000</v>
+        <v>1203.07</v>
       </c>
       <c r="S14" s="1">
-        <v>-130.659000</v>
+        <v>-130.65899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>64503.734100</v>
+        <v>64503.734100000001</v>
       </c>
       <c r="V14" s="1">
-        <v>17.917704</v>
+        <v>17.917704000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.700000</v>
+        <v>1210.7</v>
       </c>
       <c r="X14" s="1">
-        <v>-109.304000</v>
+        <v>-109.304</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>64513.934331</v>
+        <v>64513.934330999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.920537</v>
+        <v>17.920536999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1218.280000</v>
+        <v>1218.28</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.959900</v>
+        <v>-91.959900000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>64524.164180</v>
+        <v>64524.16418</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.923379</v>
+        <v>17.923379000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1223.030000</v>
+        <v>1223.03</v>
       </c>
       <c r="AH14" s="1">
-        <v>-87.136300</v>
+        <v>-87.136300000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>64534.283659</v>
+        <v>64534.283659000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>17.926190</v>
+        <v>17.926189999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1230.270000</v>
+        <v>1230.27</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.382200</v>
+        <v>-90.382199999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>64545.043869</v>
+        <v>64545.043869000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.929179</v>
+        <v>17.929179000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1238.340000</v>
+        <v>1238.3399999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.309000</v>
+        <v>-102.309</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>64556.483102</v>
+        <v>64556.483101999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.932356</v>
+        <v>17.932355999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1248.510000</v>
+        <v>1248.51</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.648000</v>
+        <v>-121.648</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>64567.505231</v>
+        <v>64567.505231000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.935418</v>
+        <v>17.935417999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1257.130000</v>
+        <v>1257.1300000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.157000</v>
+        <v>-139.15700000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>64578.492081</v>
+        <v>64578.492080999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.938470</v>
+        <v>17.938469999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1297.970000</v>
+        <v>1297.97</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.929000</v>
+        <v>-220.929</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>64590.189729</v>
+        <v>64590.189728999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>17.941719</v>
+        <v>17.941718999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1368.570000</v>
+        <v>1368.57</v>
       </c>
       <c r="BL14" s="1">
-        <v>-356.517000</v>
+        <v>-356.517</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>64601.707331</v>
+        <v>64601.707330999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.944919</v>
+        <v>17.944918999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1484.020000</v>
+        <v>1484.02</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.645000</v>
+        <v>-576.64499999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>64612.935300</v>
+        <v>64612.935299999997</v>
       </c>
       <c r="BT14" s="1">
         <v>17.948038</v>
       </c>
       <c r="BU14" s="1">
-        <v>1616.630000</v>
+        <v>1616.63</v>
       </c>
       <c r="BV14" s="1">
-        <v>-824.444000</v>
+        <v>-824.44399999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>64623.763925</v>
+        <v>64623.763924999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>17.951046</v>
+        <v>17.951046000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1770.630000</v>
+        <v>1770.63</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1092.740000</v>
+        <v>-1092.74</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>64636.332085</v>
+        <v>64636.332085000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>17.954537</v>
+        <v>17.954536999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>2190.670000</v>
+        <v>2190.67</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1740.110000</v>
+        <v>-1740.11</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>64462.434715</v>
+        <v>64462.434715000003</v>
       </c>
       <c r="B15" s="1">
-        <v>17.906232</v>
+        <v>17.906231999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1143.850000</v>
+        <v>1143.8499999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.559000</v>
+        <v>-261.55900000000003</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>64472.875500</v>
+        <v>64472.875500000002</v>
       </c>
       <c r="G15" s="1">
         <v>17.909132</v>
       </c>
       <c r="H15" s="1">
-        <v>1165.830000</v>
+        <v>1165.83</v>
       </c>
       <c r="I15" s="1">
-        <v>-219.982000</v>
+        <v>-219.982</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>64483.344031</v>
+        <v>64483.344031000001</v>
       </c>
       <c r="L15" s="1">
-        <v>17.912040</v>
+        <v>17.912040000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1194.900000</v>
+        <v>1194.9000000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-153.075000</v>
+        <v>-153.07499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>64493.558172</v>
+        <v>64493.558171999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.914877</v>
+        <v>17.914877000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.070000</v>
+        <v>1203.07</v>
       </c>
       <c r="S15" s="1">
-        <v>-130.600000</v>
+        <v>-130.6</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>64504.158147</v>
+        <v>64504.158147000002</v>
       </c>
       <c r="V15" s="1">
-        <v>17.917822</v>
+        <v>17.917822000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1210.700000</v>
+        <v>1210.7</v>
       </c>
       <c r="X15" s="1">
-        <v>-109.267000</v>
+        <v>-109.267</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>64514.357879</v>
+        <v>64514.357879000003</v>
       </c>
       <c r="AA15" s="1">
         <v>17.920655</v>
       </c>
       <c r="AB15" s="1">
-        <v>1218.400000</v>
+        <v>1218.4000000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.858900</v>
+        <v>-91.858900000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>64524.438570</v>
+        <v>64524.438569999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.923455</v>
+        <v>17.923455000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1223.060000</v>
+        <v>1223.06</v>
       </c>
       <c r="AH15" s="1">
-        <v>-87.188600</v>
+        <v>-87.188599999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>64534.632874</v>
+        <v>64534.632874000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>17.926287</v>
+        <v>17.926286999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1230.290000</v>
+        <v>1230.29</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.389500</v>
+        <v>-90.389499999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>64545.403468</v>
+        <v>64545.403467999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.929279</v>
+        <v>17.929279000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1238.340000</v>
+        <v>1238.3399999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.301000</v>
+        <v>-102.301</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>64556.849182</v>
+        <v>64556.849181999998</v>
       </c>
       <c r="AU15" s="1">
         <v>17.932458</v>
       </c>
       <c r="AV15" s="1">
-        <v>1248.500000</v>
+        <v>1248.5</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.639000</v>
+        <v>-121.639</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>64568.221423</v>
+        <v>64568.221423000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>17.935617</v>
+        <v>17.935617000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1257.140000</v>
+        <v>1257.1400000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.140000</v>
+        <v>-139.13999999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>64579.216272</v>
+        <v>64579.216271999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>17.938671</v>
+        <v>17.938670999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1297.990000</v>
+        <v>1297.99</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.937000</v>
+        <v>-220.93700000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>64590.565200</v>
+        <v>64590.565199999997</v>
       </c>
       <c r="BJ15" s="1">
         <v>17.941824</v>
       </c>
       <c r="BK15" s="1">
-        <v>1368.570000</v>
+        <v>1368.57</v>
       </c>
       <c r="BL15" s="1">
-        <v>-356.506000</v>
+        <v>-356.50599999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>64602.106145</v>
+        <v>64602.106144999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.945029</v>
+        <v>17.945029000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1484.050000</v>
+        <v>1484.05</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.637000</v>
+        <v>-576.63699999999994</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>64613.364341</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.948157</v>
+        <v>17.948156999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1616.600000</v>
+        <v>1616.6</v>
       </c>
       <c r="BV15" s="1">
-        <v>-824.424000</v>
+        <v>-824.42399999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>64624.496516</v>
+        <v>64624.496515999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.951249</v>
+        <v>17.951249000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1770.490000</v>
+        <v>1770.49</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1092.750000</v>
+        <v>-1092.75</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>64636.554756</v>
+        <v>64636.554755999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>17.954599</v>
+        <v>17.954599000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>2190.230000</v>
+        <v>2190.23</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1740.170000</v>
+        <v>-1740.17</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>64462.779434</v>
+        <v>64462.779433999996</v>
       </c>
       <c r="B16" s="1">
-        <v>17.906328</v>
+        <v>17.906327999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1143.700000</v>
+        <v>1143.7</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.451000</v>
+        <v>-261.45100000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>64473.221713</v>
+        <v>64473.221712999999</v>
       </c>
       <c r="G16" s="1">
-        <v>17.909228</v>
+        <v>17.909227999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1166.360000</v>
+        <v>1166.3599999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-220.049000</v>
+        <v>-220.04900000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>64483.767893</v>
+        <v>64483.767892999997</v>
       </c>
       <c r="L16" s="1">
-        <v>17.912158</v>
+        <v>17.912158000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.160000</v>
+        <v>1195.1600000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-153.340000</v>
+        <v>-153.34</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>64493.989664</v>
+        <v>64493.989664000001</v>
       </c>
       <c r="Q16" s="1">
         <v>17.914997</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.080000</v>
+        <v>1203.08</v>
       </c>
       <c r="S16" s="1">
-        <v>-130.585000</v>
+        <v>-130.58500000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>64504.430946</v>
@@ -4139,88 +4555,88 @@
         <v>17.917897</v>
       </c>
       <c r="W16" s="1">
-        <v>1210.790000</v>
+        <v>1210.79</v>
       </c>
       <c r="X16" s="1">
-        <v>-109.456000</v>
+        <v>-109.456</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>64514.637653</v>
+        <v>64514.637652999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.920733</v>
+        <v>17.920732999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1218.330000</v>
+        <v>1218.33</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.904000</v>
+        <v>-91.903999999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>64524.780328</v>
+        <v>64524.780328000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>17.923550</v>
+        <v>17.923549999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1223.070000</v>
+        <v>1223.07</v>
       </c>
       <c r="AH16" s="1">
-        <v>-87.166700</v>
+        <v>-87.166700000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>64534.982523</v>
+        <v>64534.982522999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.926384</v>
+        <v>17.926383999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1230.270000</v>
+        <v>1230.27</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.388800</v>
+        <v>-90.388800000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>64545.763069</v>
+        <v>64545.763069000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>17.929379</v>
+        <v>17.929379000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1238.350000</v>
+        <v>1238.3499999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.304000</v>
+        <v>-102.304</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>64557.579292</v>
+        <v>64557.579292000002</v>
       </c>
       <c r="AU16" s="1">
         <v>17.932661</v>
       </c>
       <c r="AV16" s="1">
-        <v>1248.520000</v>
+        <v>1248.52</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.667000</v>
+        <v>-121.667</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>64568.582015</v>
@@ -4229,330 +4645,330 @@
         <v>17.935717</v>
       </c>
       <c r="BA16" s="1">
-        <v>1257.100000</v>
+        <v>1257.0999999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.147000</v>
+        <v>-139.14699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>64579.576832</v>
+        <v>64579.576831999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>17.938771</v>
+        <v>17.938770999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.921000</v>
+        <v>-220.92099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>64590.938723</v>
+        <v>64590.938722999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>17.941927</v>
       </c>
       <c r="BK16" s="1">
-        <v>1368.560000</v>
+        <v>1368.56</v>
       </c>
       <c r="BL16" s="1">
-        <v>-356.526000</v>
+        <v>-356.52600000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>64602.834240</v>
+        <v>64602.834239999996</v>
       </c>
       <c r="BO16" s="1">
-        <v>17.945232</v>
+        <v>17.945232000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1484.040000</v>
+        <v>1484.04</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.586000</v>
+        <v>-576.58600000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>64614.107811</v>
+        <v>64614.107811000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>17.948363</v>
+        <v>17.948363000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1616.700000</v>
+        <v>1616.7</v>
       </c>
       <c r="BV16" s="1">
-        <v>-824.298000</v>
+        <v>-824.298</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>64624.657219</v>
+        <v>64624.657219000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.951294</v>
+        <v>17.951294000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1770.490000</v>
+        <v>1770.49</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1092.720000</v>
+        <v>-1092.72</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>64637.077043</v>
+        <v>64637.077042999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.954744</v>
+        <v>17.954744000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>2189.940000</v>
+        <v>2189.94</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1738.570000</v>
+        <v>-1738.57</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>64463.121641</v>
+        <v>64463.121640999998</v>
       </c>
       <c r="B17" s="1">
         <v>17.906423</v>
       </c>
       <c r="C17" s="1">
-        <v>1143.830000</v>
+        <v>1143.83</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.519000</v>
+        <v>-261.51900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>64473.641293</v>
+        <v>64473.641293000001</v>
       </c>
       <c r="G17" s="1">
-        <v>17.909345</v>
+        <v>17.909344999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>1166.070000</v>
+        <v>1166.07</v>
       </c>
       <c r="I17" s="1">
-        <v>-219.726000</v>
+        <v>-219.726</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>64484.036445</v>
+        <v>64484.036444999998</v>
       </c>
       <c r="L17" s="1">
-        <v>17.912232</v>
+        <v>17.912231999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1194.760000</v>
+        <v>1194.76</v>
       </c>
       <c r="N17" s="1">
-        <v>-152.808000</v>
+        <v>-152.80799999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>64494.264945</v>
+        <v>64494.264945000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.915074</v>
+        <v>17.915074000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1203.130000</v>
+        <v>1203.1300000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-130.562000</v>
+        <v>-130.56200000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>64504.773716</v>
+        <v>64504.773716000003</v>
       </c>
       <c r="V17" s="1">
-        <v>17.917993</v>
+        <v>17.917992999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.670000</v>
+        <v>1210.67</v>
       </c>
       <c r="X17" s="1">
-        <v>-109.292000</v>
+        <v>-109.292</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>64514.985831</v>
+        <v>64514.985830999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.920829</v>
+        <v>17.920829000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1218.430000</v>
+        <v>1218.43</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.813500</v>
+        <v>-91.813500000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>64525.124071</v>
+        <v>64525.124070999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.923646</v>
+        <v>17.923646000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>1223.130000</v>
+        <v>1223.1300000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-87.225700</v>
+        <v>-87.225700000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>64535.679897</v>
+        <v>64535.679897000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>17.926578</v>
+        <v>17.926577999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1230.290000</v>
+        <v>1230.29</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.396600</v>
+        <v>-90.396600000000007</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>64546.491196</v>
+        <v>64546.491196000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>17.929581</v>
+        <v>17.929580999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1238.340000</v>
+        <v>1238.3399999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.301000</v>
+        <v>-102.301</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>64557.969613</v>
+        <v>64557.969613000001</v>
       </c>
       <c r="AU17" s="1">
         <v>17.932769</v>
       </c>
       <c r="AV17" s="1">
-        <v>1248.490000</v>
+        <v>1248.49</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.648000</v>
+        <v>-121.648</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>64568.942111</v>
+        <v>64568.942110999997</v>
       </c>
       <c r="AZ17" s="1">
         <v>17.935817</v>
       </c>
       <c r="BA17" s="1">
-        <v>1257.160000</v>
+        <v>1257.1600000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.155000</v>
+        <v>-139.155</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>64579.938415</v>
+        <v>64579.938414999997</v>
       </c>
       <c r="BE17" s="1">
         <v>17.938872</v>
       </c>
       <c r="BF17" s="1">
-        <v>1298.020000</v>
+        <v>1298.02</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.928000</v>
+        <v>-220.928</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>64591.627632</v>
+        <v>64591.627632000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.942119</v>
+        <v>17.942119000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1368.570000</v>
+        <v>1368.57</v>
       </c>
       <c r="BL17" s="1">
-        <v>-356.501000</v>
+        <v>-356.50099999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>64603.342640</v>
+        <v>64603.342640000003</v>
       </c>
       <c r="BO17" s="1">
         <v>17.945373</v>
       </c>
       <c r="BP17" s="1">
-        <v>1484.010000</v>
+        <v>1484.01</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.643000</v>
+        <v>-576.64300000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>64614.238753</v>
+        <v>64614.238752999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>17.948400</v>
+        <v>17.948399999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1616.650000</v>
+        <v>1616.65</v>
       </c>
       <c r="BV17" s="1">
-        <v>-824.229000</v>
+        <v>-824.22900000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>64625.078857</v>
@@ -4561,332 +4977,332 @@
         <v>17.951411</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1770.320000</v>
+        <v>1770.32</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1092.720000</v>
+        <v>-1092.72</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>64637.595892</v>
+        <v>64637.595891999998</v>
       </c>
       <c r="CD17" s="1">
         <v>17.954888</v>
       </c>
       <c r="CE17" s="1">
-        <v>2190.170000</v>
+        <v>2190.17</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1738.300000</v>
+        <v>-1738.3</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>64463.554650</v>
+        <v>64463.554649999998</v>
       </c>
       <c r="B18" s="1">
-        <v>17.906543</v>
+        <v>17.906542999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1144.030000</v>
+        <v>1144.03</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.400000</v>
+        <v>-261.39999999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>64473.909659</v>
+        <v>64473.909658999997</v>
       </c>
       <c r="G18" s="1">
         <v>17.909419</v>
       </c>
       <c r="H18" s="1">
-        <v>1165.620000</v>
+        <v>1165.6199999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-219.233000</v>
+        <v>-219.233</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>64484.382158</v>
       </c>
       <c r="L18" s="1">
-        <v>17.912328</v>
+        <v>17.912327999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1194.850000</v>
+        <v>1194.8499999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-153.223000</v>
+        <v>-153.22300000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>64494.615615</v>
+        <v>64494.615615000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.915171</v>
+        <v>17.915171000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.150000</v>
+        <v>1203.1500000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-130.584000</v>
+        <v>-130.584</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>64505.116914</v>
+        <v>64505.116913999998</v>
       </c>
       <c r="V18" s="1">
-        <v>17.918088</v>
+        <v>17.918088000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1210.440000</v>
+        <v>1210.44</v>
       </c>
       <c r="X18" s="1">
-        <v>-109.184000</v>
+        <v>-109.184</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>64515.612259</v>
+        <v>64515.612259000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.921003</v>
+        <v>17.921002999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1218.290000</v>
+        <v>1218.29</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.881900</v>
+        <v>-91.881900000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>64525.810008</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.923836</v>
+        <v>17.923836000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1223.080000</v>
+        <v>1223.08</v>
       </c>
       <c r="AH18" s="1">
-        <v>-87.158800</v>
+        <v>-87.158799999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>64536.029080</v>
+        <v>64536.02908</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.926675</v>
+        <v>17.926674999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1230.270000</v>
+        <v>1230.27</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.373700</v>
+        <v>-90.373699999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>64546.867660</v>
+        <v>64546.867660000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>17.929685</v>
+        <v>17.929684999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1238.350000</v>
+        <v>1238.3499999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.323000</v>
+        <v>-102.32299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>64558.333211</v>
+        <v>64558.333210999997</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.932870</v>
+        <v>17.932870000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1248.500000</v>
+        <v>1248.5</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.634000</v>
+        <v>-121.634</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>64569.614189</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.936004</v>
+        <v>17.936004000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1257.110000</v>
+        <v>1257.1099999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.160000</v>
+        <v>-139.16</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>64580.608510</v>
+        <v>64580.608509999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>17.939058</v>
+        <v>17.939057999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.974000</v>
+        <v>-220.97399999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>64592.094862</v>
+        <v>64592.094861999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>17.942249</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.590000</v>
+        <v>1368.59</v>
       </c>
       <c r="BL18" s="1">
-        <v>-356.510000</v>
+        <v>-356.51</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>64603.761761</v>
+        <v>64603.761761000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.945489</v>
+        <v>17.945488999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1484.040000</v>
+        <v>1484.04</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.622000</v>
+        <v>-576.62199999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>64614.649936</v>
+        <v>64614.649936000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.948514</v>
+        <v>17.948513999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1616.690000</v>
+        <v>1616.69</v>
       </c>
       <c r="BV18" s="1">
-        <v>-824.169000</v>
+        <v>-824.16899999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>64625.527202</v>
+        <v>64625.527201999997</v>
       </c>
       <c r="BY18" s="1">
         <v>17.951535</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1770.690000</v>
+        <v>1770.69</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1092.640000</v>
+        <v>-1092.6400000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>64638.145922</v>
+        <v>64638.145922000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.955041</v>
+        <v>17.955041000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2190.700000</v>
+        <v>2190.6999999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1739.770000</v>
+        <v>-1739.77</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>64463.819674</v>
+        <v>64463.819673999998</v>
       </c>
       <c r="B19" s="1">
-        <v>17.906617</v>
+        <v>17.906617000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1144.040000</v>
+        <v>1144.04</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.424000</v>
+        <v>-261.42399999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>64474.253356</v>
+        <v>64474.253356000001</v>
       </c>
       <c r="G19" s="1">
-        <v>17.909515</v>
+        <v>17.909514999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1166.060000</v>
+        <v>1166.06</v>
       </c>
       <c r="I19" s="1">
-        <v>-219.704000</v>
+        <v>-219.70400000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>64484.724930</v>
+        <v>64484.724929999997</v>
       </c>
       <c r="L19" s="1">
-        <v>17.912424</v>
+        <v>17.912424000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1194.980000</v>
+        <v>1194.98</v>
       </c>
       <c r="N19" s="1">
-        <v>-153.252000</v>
+        <v>-153.25200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>64494.960367</v>
@@ -4895,468 +5311,468 @@
         <v>17.915267</v>
       </c>
       <c r="R19" s="1">
-        <v>1203.090000</v>
+        <v>1203.0899999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-130.658000</v>
+        <v>-130.65799999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>64505.804865</v>
+        <v>64505.804864999998</v>
       </c>
       <c r="V19" s="1">
-        <v>17.918279</v>
+        <v>17.918278999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1210.730000</v>
+        <v>1210.73</v>
       </c>
       <c r="X19" s="1">
-        <v>-109.360000</v>
+        <v>-109.36</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>64516.031702</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.921120</v>
+        <v>17.921119999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1218.450000</v>
+        <v>1218.45</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.883400</v>
+        <v>-91.883399999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>64526.156214</v>
+        <v>64526.156214000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>17.923932</v>
+        <v>17.923932000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1223.140000</v>
+        <v>1223.1400000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-87.171800</v>
+        <v>-87.171800000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>64536.379767</v>
+        <v>64536.379766999999</v>
       </c>
       <c r="AK19" s="1">
         <v>17.926772</v>
       </c>
       <c r="AL19" s="1">
-        <v>1230.260000</v>
+        <v>1230.26</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.373100</v>
+        <v>-90.373099999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>64547.226762</v>
+        <v>64547.226761999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>17.929785</v>
+        <v>17.929784999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1238.330000</v>
+        <v>1238.33</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.316000</v>
+        <v>-102.316</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>64559.006746</v>
+        <v>64559.006745999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>17.933057</v>
+        <v>17.933057000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1248.490000</v>
+        <v>1248.49</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.638000</v>
+        <v>-121.63800000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>64570.038764</v>
+        <v>64570.038763999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.936122</v>
+        <v>17.936122000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1257.150000</v>
+        <v>1257.1500000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.142000</v>
+        <v>-139.142</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>64581.052960</v>
+        <v>64581.052960000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.939181</v>
+        <v>17.939181000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1298.010000</v>
+        <v>1298.01</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.944000</v>
+        <v>-220.94399999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>64592.483758</v>
+        <v>64592.483758000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>17.942357</v>
+        <v>17.942357000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.580000</v>
+        <v>1368.58</v>
       </c>
       <c r="BL19" s="1">
-        <v>-356.512000</v>
+        <v>-356.512</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>64604.160047</v>
+        <v>64604.160046999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.945600</v>
+        <v>17.945599999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1484.030000</v>
+        <v>1484.03</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.637000</v>
+        <v>-576.63699999999994</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>64615.078480</v>
+        <v>64615.078479999996</v>
       </c>
       <c r="BT19" s="1">
-        <v>17.948633</v>
+        <v>17.948633000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1616.770000</v>
+        <v>1616.77</v>
       </c>
       <c r="BV19" s="1">
-        <v>-824.182000</v>
+        <v>-824.18200000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>64625.957731</v>
+        <v>64625.957731000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.951655</v>
+        <v>17.951654999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1770.390000</v>
+        <v>1770.39</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1092.600000</v>
+        <v>-1092.5999999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>64638.675686</v>
+        <v>64638.675686000002</v>
       </c>
       <c r="CD19" s="1">
         <v>17.955188</v>
       </c>
       <c r="CE19" s="1">
-        <v>2189.970000</v>
+        <v>2189.9699999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1738.090000</v>
+        <v>-1738.09</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>64464.162254</v>
+        <v>64464.162254000003</v>
       </c>
       <c r="B20" s="1">
-        <v>17.906712</v>
+        <v>17.906711999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1143.740000</v>
+        <v>1143.74</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.510000</v>
+        <v>-261.51</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>64474.599126</v>
+        <v>64474.599126000001</v>
       </c>
       <c r="G20" s="1">
-        <v>17.909611</v>
+        <v>17.909611000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.310000</v>
+        <v>1166.31</v>
       </c>
       <c r="I20" s="1">
-        <v>-220.334000</v>
+        <v>-220.334</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>64485.416821</v>
+        <v>64485.416820999999</v>
       </c>
       <c r="L20" s="1">
         <v>17.912616</v>
       </c>
       <c r="M20" s="1">
-        <v>1194.910000</v>
+        <v>1194.9100000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-153.298000</v>
+        <v>-153.298</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>64495.658702</v>
+        <v>64495.658702000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.915461</v>
+        <v>17.915461000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.050000</v>
+        <v>1203.05</v>
       </c>
       <c r="S20" s="1">
-        <v>-130.646000</v>
+        <v>-130.64599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>64506.148592</v>
+        <v>64506.148591999998</v>
       </c>
       <c r="V20" s="1">
-        <v>17.918375</v>
+        <v>17.918375000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1210.670000</v>
+        <v>1210.67</v>
       </c>
       <c r="X20" s="1">
-        <v>-109.344000</v>
+        <v>-109.34399999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>64516.379076</v>
+        <v>64516.379075999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>17.921216</v>
+        <v>17.921216000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1218.420000</v>
+        <v>1218.42</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.947600</v>
+        <v>-91.947599999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>64526.500469</v>
+        <v>64526.500468999999</v>
       </c>
       <c r="AF20" s="1">
         <v>17.924028</v>
       </c>
       <c r="AG20" s="1">
-        <v>1223.110000</v>
+        <v>1223.1099999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-87.142000</v>
+        <v>-87.141999999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>64537.024551</v>
+        <v>64537.024551000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.926951</v>
+        <v>17.926950999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1230.300000</v>
+        <v>1230.3</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.410700</v>
+        <v>-90.410700000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>64547.900331</v>
+        <v>64547.900330999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>17.929972</v>
+        <v>17.929971999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1238.370000</v>
+        <v>1238.3699999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.265000</v>
+        <v>-102.265</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>64559.460595</v>
+        <v>64559.460594999997</v>
       </c>
       <c r="AU20" s="1">
         <v>17.933183</v>
       </c>
       <c r="AV20" s="1">
-        <v>1248.520000</v>
+        <v>1248.52</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.687000</v>
+        <v>-121.687</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>64570.418699</v>
+        <v>64570.418699000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.936227</v>
+        <v>17.936226999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1257.160000</v>
+        <v>1257.1600000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.148000</v>
+        <v>-139.148</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>64581.415501</v>
+        <v>64581.415501000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.939282</v>
+        <v>17.939281999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1298.000000</v>
+        <v>1298</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.936000</v>
+        <v>-220.93600000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>64592.862175</v>
+        <v>64592.862175000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.942462</v>
+        <v>17.942461999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1368.590000</v>
+        <v>1368.59</v>
       </c>
       <c r="BL20" s="1">
-        <v>-356.515000</v>
+        <v>-356.51499999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>64604.584622</v>
+        <v>64604.584622000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.945718</v>
+        <v>17.945717999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1484.050000</v>
+        <v>1484.05</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.564000</v>
+        <v>-576.56399999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>64615.595821</v>
+        <v>64615.595821000003</v>
       </c>
       <c r="BT20" s="1">
         <v>17.948777</v>
       </c>
       <c r="BU20" s="1">
-        <v>1616.720000</v>
+        <v>1616.72</v>
       </c>
       <c r="BV20" s="1">
-        <v>-824.101000</v>
+        <v>-824.101</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>64626.380321</v>
+        <v>64626.380320999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.951772</v>
+        <v>17.951771999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1770.570000</v>
+        <v>1770.57</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1092.770000</v>
+        <v>-1092.77</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>64639.192976</v>
+        <v>64639.192975999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.955331</v>
+        <v>17.955331000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2190.400000</v>
+        <v>2190.4</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1738.680000</v>
+        <v>-1738.68</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>64464.503052</v>
       </c>
@@ -5364,28 +5780,28 @@
         <v>17.906806</v>
       </c>
       <c r="C21" s="1">
-        <v>1143.690000</v>
+        <v>1143.69</v>
       </c>
       <c r="D21" s="1">
-        <v>-261.286000</v>
+        <v>-261.286</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>64475.288505</v>
+        <v>64475.288504999997</v>
       </c>
       <c r="G21" s="1">
-        <v>17.909802</v>
+        <v>17.909801999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1167.590000</v>
+        <v>1167.5899999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-220.380000</v>
+        <v>-220.38</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>64485.765003</v>
@@ -5394,527 +5810,527 @@
         <v>17.912713</v>
       </c>
       <c r="M21" s="1">
-        <v>1194.990000</v>
+        <v>1194.99</v>
       </c>
       <c r="N21" s="1">
-        <v>-152.999000</v>
+        <v>-152.999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>64496.008910</v>
+        <v>64496.008909999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.915558</v>
+        <v>17.915558000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.020000</v>
+        <v>1203.02</v>
       </c>
       <c r="S21" s="1">
-        <v>-130.608000</v>
+        <v>-130.608</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>64506.492816</v>
+        <v>64506.492815999998</v>
       </c>
       <c r="V21" s="1">
-        <v>17.918470</v>
+        <v>17.918469999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1210.610000</v>
+        <v>1210.6099999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-109.318000</v>
+        <v>-109.318</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>64517.036770</v>
+        <v>64517.036769999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.921399</v>
+        <v>17.921399000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.738200</v>
+        <v>-91.738200000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>64527.168052</v>
+        <v>64527.168052000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>17.924213</v>
+        <v>17.924213000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>1223.110000</v>
+        <v>1223.1099999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-87.164500</v>
+        <v>-87.164500000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>64537.424327</v>
+        <v>64537.424327000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>17.927062</v>
+        <v>17.927061999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1230.280000</v>
+        <v>1230.28</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.404100</v>
+        <v>-90.4041</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>64548.311016</v>
       </c>
       <c r="AP21" s="1">
-        <v>17.930086</v>
+        <v>17.930085999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1238.360000</v>
+        <v>1238.3599999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.322000</v>
+        <v>-102.322</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>64559.823689</v>
+        <v>64559.823688999997</v>
       </c>
       <c r="AU21" s="1">
         <v>17.933284</v>
       </c>
       <c r="AV21" s="1">
-        <v>1248.490000</v>
+        <v>1248.49</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.672000</v>
+        <v>-121.672</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>64570.778794</v>
+        <v>64570.778793999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>17.936327</v>
+        <v>17.936326999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1257.140000</v>
+        <v>1257.1400000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.136000</v>
+        <v>-139.136</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>64581.774108</v>
+        <v>64581.774107999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>17.939382</v>
+        <v>17.939381999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1298.020000</v>
+        <v>1298.02</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.982000</v>
+        <v>-220.982</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>64593.284269</v>
+        <v>64593.284269000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.942579</v>
+        <v>17.942578999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.580000</v>
+        <v>1368.58</v>
       </c>
       <c r="BL21" s="1">
-        <v>-356.485000</v>
+        <v>-356.48500000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>64604.977949</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.945827</v>
+        <v>17.945827000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1484.070000</v>
+        <v>1484.07</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.666000</v>
+        <v>-576.66600000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>64615.910799</v>
+        <v>64615.910798999997</v>
       </c>
       <c r="BT21" s="1">
         <v>17.948864</v>
       </c>
       <c r="BU21" s="1">
-        <v>1616.760000</v>
+        <v>1616.76</v>
       </c>
       <c r="BV21" s="1">
-        <v>-823.936000</v>
+        <v>-823.93600000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>64626.799473</v>
+        <v>64626.799472999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.951889</v>
+        <v>17.951889000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1770.500000</v>
+        <v>1770.5</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1092.560000</v>
+        <v>-1092.56</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>64639.747007</v>
+        <v>64639.747006999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>17.955485</v>
+        <v>17.955484999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2190.280000</v>
+        <v>2190.2800000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1739.730000</v>
+        <v>-1739.73</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>64465.186131</v>
+        <v>64465.186131000002</v>
       </c>
       <c r="B22" s="1">
-        <v>17.906996</v>
+        <v>17.906995999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1143.950000</v>
+        <v>1143.95</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.445000</v>
+        <v>-261.44499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>64475.633721</v>
+        <v>64475.633720999998</v>
       </c>
       <c r="G22" s="1">
-        <v>17.909898</v>
+        <v>17.909897999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.850000</v>
+        <v>1165.8499999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-219.730000</v>
+        <v>-219.73</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>64486.113691</v>
+        <v>64486.113690999999</v>
       </c>
       <c r="L22" s="1">
-        <v>17.912809</v>
+        <v>17.912808999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1194.940000</v>
+        <v>1194.94</v>
       </c>
       <c r="N22" s="1">
-        <v>-152.860000</v>
+        <v>-152.86000000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>64496.356112</v>
+        <v>64496.356112000001</v>
       </c>
       <c r="Q22" s="1">
         <v>17.915654</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.150000</v>
+        <v>1203.1500000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-130.527000</v>
+        <v>-130.52699999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>64507.153984</v>
+        <v>64507.153983999997</v>
       </c>
       <c r="V22" s="1">
         <v>17.918654</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.620000</v>
+        <v>1210.6199999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-109.420000</v>
+        <v>-109.42</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>64517.424641</v>
+        <v>64517.424640999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.921507</v>
+        <v>17.921506999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.886300</v>
+        <v>-91.886300000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>64527.538565</v>
+        <v>64527.538565000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.924316</v>
+        <v>17.924316000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1223.110000</v>
+        <v>1223.1099999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-87.217700</v>
+        <v>-87.217699999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>64537.772518</v>
+        <v>64537.772517999998</v>
       </c>
       <c r="AK22" s="1">
         <v>17.927159</v>
       </c>
       <c r="AL22" s="1">
-        <v>1230.280000</v>
+        <v>1230.28</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.409700</v>
+        <v>-90.409700000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>64548.694428</v>
+        <v>64548.694428000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.930193</v>
+        <v>17.930192999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1238.340000</v>
+        <v>1238.3399999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.311000</v>
+        <v>-102.31100000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>64560.188745</v>
+        <v>64560.188744999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.933386</v>
+        <v>17.933385999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1248.520000</v>
+        <v>1248.52</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.650000</v>
+        <v>-121.65</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>64571.199898</v>
+        <v>64571.199897999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.936444</v>
+        <v>17.936444000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1257.170000</v>
+        <v>1257.17</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.169000</v>
+        <v>-139.16900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>64582.240379</v>
+        <v>64582.240379000003</v>
       </c>
       <c r="BE22" s="1">
         <v>17.939511</v>
       </c>
       <c r="BF22" s="1">
-        <v>1298.030000</v>
+        <v>1298.03</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.932000</v>
+        <v>-220.93199999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>64593.612622</v>
+        <v>64593.612622000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.942670</v>
+        <v>17.94267</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.620000</v>
+        <v>1368.62</v>
       </c>
       <c r="BL22" s="1">
-        <v>-356.504000</v>
+        <v>-356.50400000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>64605.398062</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.945944</v>
+        <v>17.945944000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1484.060000</v>
+        <v>1484.06</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.648000</v>
+        <v>-576.64800000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>64616.321455</v>
+        <v>64616.321454999998</v>
       </c>
       <c r="BT22" s="1">
         <v>17.948978</v>
       </c>
       <c r="BU22" s="1">
-        <v>1616.850000</v>
+        <v>1616.85</v>
       </c>
       <c r="BV22" s="1">
-        <v>-823.957000</v>
+        <v>-823.95699999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>64627.227029</v>
+        <v>64627.227029000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.952008</v>
+        <v>17.952007999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1770.470000</v>
+        <v>1770.47</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1092.610000</v>
+        <v>-1092.6099999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>64640.275782</v>
+        <v>64640.275781999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>17.955632</v>
+        <v>17.955632000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2189.880000</v>
+        <v>2189.88</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1738.110000</v>
+        <v>-1738.11</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>64465.529253</v>
+        <v>64465.529253000001</v>
       </c>
       <c r="B23" s="1">
-        <v>17.907091</v>
+        <v>17.907091000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1143.760000</v>
+        <v>1143.76</v>
       </c>
       <c r="D23" s="1">
-        <v>-261.336000</v>
+        <v>-261.33600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>64475.975961</v>
+        <v>64475.975960999996</v>
       </c>
       <c r="G23" s="1">
         <v>17.909993</v>
       </c>
       <c r="H23" s="1">
-        <v>1165.860000</v>
+        <v>1165.8599999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-219.444000</v>
+        <v>-219.44399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>64486.768409</v>
+        <v>64486.768408999997</v>
       </c>
       <c r="L23" s="1">
-        <v>17.912991</v>
+        <v>17.912991000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.150000</v>
+        <v>1195.1500000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-152.944000</v>
+        <v>-152.94399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>64497.028156</v>
@@ -5923,193 +6339,193 @@
         <v>17.915841</v>
       </c>
       <c r="R23" s="1">
-        <v>1203.140000</v>
+        <v>1203.1400000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-130.602000</v>
+        <v>-130.602</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>64507.530447</v>
+        <v>64507.530446999997</v>
       </c>
       <c r="V23" s="1">
         <v>17.918758</v>
       </c>
       <c r="W23" s="1">
-        <v>1210.690000</v>
+        <v>1210.69</v>
       </c>
       <c r="X23" s="1">
-        <v>-109.044000</v>
+        <v>-109.044</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>64517.773861</v>
+        <v>64517.773861000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.921604</v>
+        <v>17.921603999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1218.260000</v>
+        <v>1218.26</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.819400</v>
+        <v>-91.819400000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>64527.882323</v>
+        <v>64527.882322999998</v>
       </c>
       <c r="AF23" s="1">
         <v>17.924412</v>
       </c>
       <c r="AG23" s="1">
-        <v>1223.110000</v>
+        <v>1223.1099999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-87.161100</v>
+        <v>-87.161100000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>64538.122695</v>
+        <v>64538.122694999998</v>
       </c>
       <c r="AK23" s="1">
         <v>17.927256</v>
       </c>
       <c r="AL23" s="1">
-        <v>1230.300000</v>
+        <v>1230.3</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.390700</v>
+        <v>-90.390699999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>64549.052041</v>
+        <v>64549.052041000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>17.930292</v>
+        <v>17.930292000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1238.340000</v>
+        <v>1238.3399999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.313000</v>
+        <v>-102.313</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>64560.600392</v>
       </c>
       <c r="AU23" s="1">
-        <v>17.933500</v>
+        <v>17.933499999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1248.520000</v>
+        <v>1248.52</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.643000</v>
+        <v>-121.643</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>64571.493374</v>
+        <v>64571.493373999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.936526</v>
+        <v>17.936526000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1257.130000</v>
+        <v>1257.1300000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.131000</v>
+        <v>-139.131</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>64582.499797</v>
+        <v>64582.499796999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.939583</v>
+        <v>17.939582999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1298.020000</v>
+        <v>1298.02</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.927000</v>
+        <v>-220.92699999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>64593.993052</v>
+        <v>64593.993051999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17.942776</v>
+        <v>17.942775999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.620000</v>
+        <v>1368.62</v>
       </c>
       <c r="BL23" s="1">
-        <v>-356.483000</v>
+        <v>-356.483</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>64605.796881</v>
+        <v>64605.796881000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.946055</v>
+        <v>17.946055000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1484.080000</v>
+        <v>1484.08</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.658000</v>
+        <v>-576.65800000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>64616.740086</v>
+        <v>64616.740085999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.949094</v>
+        <v>17.949093999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1616.980000</v>
+        <v>1616.98</v>
       </c>
       <c r="BV23" s="1">
-        <v>-823.908000</v>
+        <v>-823.90800000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>64627.648592</v>
+        <v>64627.648591999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.952125</v>
+        <v>17.952124999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1770.420000</v>
+        <v>1770.42</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1092.480000</v>
+        <v>-1092.48</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>64640.793566</v>
@@ -6118,786 +6534,787 @@
         <v>17.955776</v>
       </c>
       <c r="CE23" s="1">
-        <v>2188.250000</v>
+        <v>2188.25</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1739.150000</v>
+        <v>-1739.15</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>64466.181463</v>
+        <v>64466.181463000001</v>
       </c>
       <c r="B24" s="1">
         <v>17.907273</v>
       </c>
       <c r="C24" s="1">
-        <v>1143.830000</v>
+        <v>1143.83</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.545000</v>
+        <v>-261.54500000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>64476.628199</v>
+        <v>64476.628198999999</v>
       </c>
       <c r="G24" s="1">
-        <v>17.910174</v>
+        <v>17.910174000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.540000</v>
+        <v>1165.54</v>
       </c>
       <c r="I24" s="1">
-        <v>-219.962000</v>
+        <v>-219.96199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>64487.146890</v>
+        <v>64487.146890000004</v>
       </c>
       <c r="L24" s="1">
-        <v>17.913096</v>
+        <v>17.913095999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.130000</v>
+        <v>1195.1300000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-152.938000</v>
+        <v>-152.93799999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>64497.406107</v>
+        <v>64497.406107000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.915946</v>
+        <v>17.915946000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1203.090000</v>
+        <v>1203.0899999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-130.659000</v>
+        <v>-130.65899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>64507.876654</v>
       </c>
       <c r="V24" s="1">
-        <v>17.918855</v>
+        <v>17.918855000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1210.650000</v>
+        <v>1210.6500000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-109.439000</v>
+        <v>-109.43899999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>64518.123045</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.921701</v>
+        <v>17.921700999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1218.450000</v>
+        <v>1218.45</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.931900</v>
+        <v>-91.931899999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>64528.228501</v>
+        <v>64528.228500999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.924508</v>
+        <v>17.924507999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1223.110000</v>
+        <v>1223.1099999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-87.109700</v>
+        <v>-87.109700000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>64538.558709</v>
+        <v>64538.558708999997</v>
       </c>
       <c r="AK24" s="1">
         <v>17.927377</v>
       </c>
       <c r="AL24" s="1">
-        <v>1230.280000</v>
+        <v>1230.28</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.394900</v>
+        <v>-90.394900000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>64549.773719</v>
+        <v>64549.773718999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>17.930493</v>
+        <v>17.930492999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1238.350000</v>
+        <v>1238.3499999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.306000</v>
+        <v>-102.306</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>64560.921304</v>
+        <v>64560.921304000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.933589</v>
+        <v>17.933589000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1248.530000</v>
+        <v>1248.53</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.648000</v>
+        <v>-121.648</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>64571.852139</v>
+        <v>64571.852139000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>17.936626</v>
       </c>
       <c r="BA24" s="1">
-        <v>1257.130000</v>
+        <v>1257.1300000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.154000</v>
+        <v>-139.154</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>64582.857868</v>
+        <v>64582.857867999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.939683</v>
+        <v>17.939682999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1298.020000</v>
+        <v>1298.02</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.971000</v>
+        <v>-220.971</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>64594.372494</v>
+        <v>64594.372494000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>17.942881</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.580000</v>
+        <v>1368.58</v>
       </c>
       <c r="BL24" s="1">
-        <v>-356.530000</v>
+        <v>-356.53</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>64606.231340</v>
+        <v>64606.231339999998</v>
       </c>
       <c r="BO24" s="1">
         <v>17.946175</v>
       </c>
       <c r="BP24" s="1">
-        <v>1484.060000</v>
+        <v>1484.06</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.654000</v>
+        <v>-576.654</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>64617.155229</v>
+        <v>64617.155229000004</v>
       </c>
       <c r="BT24" s="1">
-        <v>17.949210</v>
+        <v>17.949210000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1617.030000</v>
+        <v>1617.03</v>
       </c>
       <c r="BV24" s="1">
-        <v>-823.856000</v>
+        <v>-823.85599999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>64628.091024</v>
+        <v>64628.091024000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.952248</v>
+        <v>17.952248000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1770.490000</v>
+        <v>1770.49</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1092.560000</v>
+        <v>-1092.56</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>64641.312879</v>
+        <v>64641.312878999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>17.955920</v>
+        <v>17.955919999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2189.440000</v>
+        <v>2189.44</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1740.340000</v>
+        <v>-1740.34</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>64466.553462</v>
+        <v>64466.553462000003</v>
       </c>
       <c r="B25" s="1">
-        <v>17.907376</v>
+        <v>17.907375999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1143.780000</v>
+        <v>1143.78</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.504000</v>
+        <v>-261.50400000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>64477.007638</v>
+        <v>64477.007638000003</v>
       </c>
       <c r="G25" s="1">
-        <v>17.910280</v>
+        <v>17.91028</v>
       </c>
       <c r="H25" s="1">
-        <v>1166.600000</v>
+        <v>1166.5999999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-219.286000</v>
+        <v>-219.286</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>64487.492105</v>
+        <v>64487.492104999998</v>
       </c>
       <c r="L25" s="1">
-        <v>17.913192</v>
+        <v>17.913191999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.170000</v>
+        <v>1195.17</v>
       </c>
       <c r="N25" s="1">
-        <v>-153.209000</v>
+        <v>-153.209</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>64497.752811</v>
+        <v>64497.752810999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.916042</v>
+        <v>17.916042000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.030000</v>
+        <v>1203.03</v>
       </c>
       <c r="S25" s="1">
-        <v>-130.651000</v>
+        <v>-130.65100000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>64508.218894</v>
+        <v>64508.218893999998</v>
       </c>
       <c r="V25" s="1">
-        <v>17.918950</v>
+        <v>17.918949999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1210.620000</v>
+        <v>1210.6199999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-109.325000</v>
+        <v>-109.325</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>64518.539679</v>
+        <v>64518.539679000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>17.921817</v>
+        <v>17.921817000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1218.350000</v>
+        <v>1218.3499999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.922300</v>
+        <v>-91.922300000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>64528.656548</v>
+        <v>64528.656547999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>17.924627</v>
+        <v>17.924627000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1223.110000</v>
+        <v>1223.1099999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-87.157300</v>
+        <v>-87.157300000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>64538.820565</v>
+        <v>64538.820565000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.927450</v>
+        <v>17.92745</v>
       </c>
       <c r="AL25" s="1">
-        <v>1230.300000</v>
+        <v>1230.3</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.401900</v>
+        <v>-90.401899999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>64550.162127</v>
+        <v>64550.162127000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>17.930601</v>
+        <v>17.930600999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1238.340000</v>
+        <v>1238.3399999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.288000</v>
+        <v>-102.288</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>64561.282393</v>
+        <v>64561.282393000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.933690</v>
+        <v>17.933689999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1248.510000</v>
+        <v>1248.51</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.660000</v>
+        <v>-121.66</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>64572.211737</v>
+        <v>64572.211736999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.936725</v>
+        <v>17.936724999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1257.130000</v>
+        <v>1257.1300000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.171000</v>
+        <v>-139.17099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>64583.581034</v>
+        <v>64583.581034000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.939884</v>
+        <v>17.939883999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1298.000000</v>
+        <v>1298</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.935000</v>
+        <v>-220.935</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>64595.131868</v>
+        <v>64595.131867999997</v>
       </c>
       <c r="BJ25" s="1">
         <v>17.943092</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.610000</v>
+        <v>1368.61</v>
       </c>
       <c r="BL25" s="1">
-        <v>-356.504000</v>
+        <v>-356.50400000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>64606.609820</v>
+        <v>64606.609819999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>17.946281</v>
+        <v>17.946280999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1484.110000</v>
+        <v>1484.11</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.642000</v>
+        <v>-576.64200000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>64617.569886</v>
+        <v>64617.569885999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>17.949325</v>
+        <v>17.949325000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1617.110000</v>
+        <v>1617.11</v>
       </c>
       <c r="BV25" s="1">
-        <v>-823.915000</v>
+        <v>-823.91499999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>64628.513616</v>
+        <v>64628.513615999997</v>
       </c>
       <c r="BY25" s="1">
         <v>17.952365</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1770.450000</v>
+        <v>1770.45</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1092.520000</v>
+        <v>-1092.52</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>64642.136997</v>
+        <v>64642.136997000001</v>
       </c>
       <c r="CD25" s="1">
         <v>17.956149</v>
       </c>
       <c r="CE25" s="1">
-        <v>2190.940000</v>
+        <v>2190.94</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1738.880000</v>
+        <v>-1738.88</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>64466.902646</v>
+        <v>64466.902646000002</v>
       </c>
       <c r="B26" s="1">
         <v>17.907473</v>
       </c>
       <c r="C26" s="1">
-        <v>1143.930000</v>
+        <v>1143.93</v>
       </c>
       <c r="D26" s="1">
-        <v>-261.612000</v>
+        <v>-261.61200000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>64477.358312</v>
+        <v>64477.358311999997</v>
       </c>
       <c r="G26" s="1">
         <v>17.910377</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.280000</v>
+        <v>1166.28</v>
       </c>
       <c r="I26" s="1">
-        <v>-219.871000</v>
+        <v>-219.87100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>64487.836793</v>
+        <v>64487.836793000002</v>
       </c>
       <c r="L26" s="1">
-        <v>17.913288</v>
+        <v>17.913288000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1194.900000</v>
+        <v>1194.9000000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-152.824000</v>
+        <v>-152.82400000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>64498.154577</v>
+        <v>64498.154577000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>17.916154</v>
+        <v>17.916153999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.080000</v>
+        <v>1203.08</v>
       </c>
       <c r="S26" s="1">
-        <v>-130.549000</v>
+        <v>-130.54900000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>64508.642513</v>
+        <v>64508.642512999999</v>
       </c>
       <c r="V26" s="1">
-        <v>17.919067</v>
+        <v>17.919066999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1210.710000</v>
+        <v>1210.71</v>
       </c>
       <c r="X26" s="1">
-        <v>-109.252000</v>
+        <v>-109.252</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>64518.820911</v>
+        <v>64518.820911000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>17.921895</v>
+        <v>17.921894999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1218.440000</v>
+        <v>1218.44</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.806500</v>
+        <v>-91.8065</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>64528.927858</v>
+        <v>64528.927858000003</v>
       </c>
       <c r="AF26" s="1">
         <v>17.924702</v>
       </c>
       <c r="AG26" s="1">
-        <v>1223.120000</v>
+        <v>1223.1199999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-87.142000</v>
+        <v>-87.141999999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>64539.169750</v>
+        <v>64539.169750000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>17.927547</v>
+        <v>17.927547000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1230.270000</v>
+        <v>1230.27</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.395100</v>
+        <v>-90.395099999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>64550.522679</v>
+        <v>64550.522679000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.930701</v>
+        <v>17.930700999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1238.360000</v>
+        <v>1238.3599999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.298000</v>
+        <v>-102.298</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>64561.648935</v>
+        <v>64561.648934999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.933791</v>
+        <v>17.933790999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1248.530000</v>
+        <v>1248.53</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.646000</v>
+        <v>-121.646</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>64572.931432</v>
+        <v>64572.931431999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.936925</v>
+        <v>17.936924999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1257.160000</v>
+        <v>1257.1600000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.179000</v>
+        <v>-139.179</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>64583.969929</v>
+        <v>64583.969928999999</v>
       </c>
       <c r="BE26" s="1">
         <v>17.939992</v>
       </c>
       <c r="BF26" s="1">
-        <v>1298.030000</v>
+        <v>1298.03</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.934000</v>
+        <v>-220.934</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>64595.534654</v>
+        <v>64595.534654000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.943204</v>
+        <v>17.943204000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.610000</v>
+        <v>1368.61</v>
       </c>
       <c r="BL26" s="1">
-        <v>-356.532000</v>
+        <v>-356.53199999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>64607.035385</v>
+        <v>64607.035385000003</v>
       </c>
       <c r="BO26" s="1">
         <v>17.946399</v>
       </c>
       <c r="BP26" s="1">
-        <v>1484.060000</v>
+        <v>1484.06</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.650000</v>
+        <v>-576.65</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>64618.318877</v>
+        <v>64618.318876999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>17.949533</v>
+        <v>17.949532999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1617.140000</v>
+        <v>1617.14</v>
       </c>
       <c r="BV26" s="1">
-        <v>-823.880000</v>
+        <v>-823.88</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>64629.241247</v>
+        <v>64629.241246999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>17.952567</v>
+        <v>17.952566999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1770.610000</v>
+        <v>1770.61</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1092.470000</v>
+        <v>-1092.47</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>64642.348029</v>
+        <v>64642.348029000001</v>
       </c>
       <c r="CD26" s="1">
         <v>17.956208</v>
       </c>
       <c r="CE26" s="1">
-        <v>2189.480000</v>
+        <v>2189.48</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1737.520000</v>
+        <v>-1737.52</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>